--- a/AAII_Financials/Quarterly/ZNTL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ZNTL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="92">
   <si>
     <t>ZNTL</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,34 +665,36 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="G7" s="2" t="s">
         <v>3</v>
       </c>
@@ -708,8 +710,14 @@
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -737,8 +745,14 @@
       <c r="K8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -766,8 +780,14 @@
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -795,8 +815,14 @@
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -808,20 +834,22 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>24700</v>
+      </c>
+      <c r="E12" s="3">
+        <v>17500</v>
+      </c>
+      <c r="F12" s="3">
         <v>13300</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G12" s="3" t="s">
         <v>3</v>
       </c>
@@ -837,8 +865,14 @@
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -866,8 +900,14 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -895,8 +935,14 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -924,8 +970,14 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -934,20 +986,22 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>34800</v>
+      </c>
+      <c r="E17" s="3">
+        <v>27400</v>
+      </c>
+      <c r="F17" s="3">
         <v>16400</v>
       </c>
-      <c r="E17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G17" s="3" t="s">
         <v>3</v>
       </c>
@@ -963,19 +1017,25 @@
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>3</v>
+      <c r="E18" s="3">
+        <v>-27400</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-16400</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>3</v>
@@ -992,8 +1052,14 @@
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1005,19 +1071,21 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>3</v>
+      <c r="E20" s="3">
+        <v>100</v>
+      </c>
+      <c r="F20" s="3">
+        <v>200</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>3</v>
@@ -1034,19 +1102,25 @@
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>3</v>
+      <c r="E21" s="3">
+        <v>-27300</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-16200</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>3</v>
@@ -1063,8 +1137,14 @@
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1092,20 +1172,26 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-34600</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-27300</v>
+      </c>
+      <c r="F23" s="3">
         <v>-16200</v>
       </c>
-      <c r="E23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1121,37 +1207,49 @@
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
         <v>0</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
-      <c r="J24" s="3">
-        <v>0</v>
+      <c r="E24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1179,20 +1277,26 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-34700</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-27300</v>
+      </c>
+      <c r="F26" s="3">
         <v>-16200</v>
       </c>
-      <c r="E26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1208,20 +1312,26 @@
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-34600</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-26900</v>
+      </c>
+      <c r="F27" s="3">
         <v>-16100</v>
       </c>
-      <c r="E27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1237,8 +1347,14 @@
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1266,8 +1382,14 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1295,8 +1417,14 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1324,8 +1452,14 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1353,19 +1487,25 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>3</v>
+      <c r="E32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-200</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>3</v>
@@ -1382,20 +1522,26 @@
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-34600</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-26900</v>
+      </c>
+      <c r="F33" s="3">
         <v>-16100</v>
       </c>
-      <c r="E33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1411,8 +1557,14 @@
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1440,20 +1592,26 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-34600</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-26900</v>
+      </c>
+      <c r="F35" s="3">
         <v>-16100</v>
       </c>
-      <c r="E35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1469,25 +1627,31 @@
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="G38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1503,8 +1667,14 @@
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1516,8 +1686,10 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1529,20 +1701,22 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>92600</v>
+      </c>
+      <c r="E41" s="3">
+        <v>96000</v>
+      </c>
+      <c r="F41" s="3">
         <v>63700</v>
       </c>
-      <c r="E41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1558,66 +1732,84 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>0</v>
+        <v>274900</v>
       </c>
       <c r="E42" s="3">
-        <v>0</v>
-      </c>
-      <c r="F42" s="3">
-        <v>0</v>
-      </c>
-      <c r="G42" s="3">
-        <v>0</v>
-      </c>
-      <c r="H42" s="3">
-        <v>0</v>
-      </c>
-      <c r="I42" s="3">
-        <v>0</v>
-      </c>
-      <c r="J42" s="3">
-        <v>0</v>
+        <v>137200</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F43" s="3">
-        <v>0</v>
-      </c>
-      <c r="G43" s="3">
-        <v>0</v>
-      </c>
-      <c r="H43" s="3">
-        <v>0</v>
-      </c>
-      <c r="I43" s="3">
-        <v>0</v>
-      </c>
-      <c r="J43" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1645,66 +1837,84 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>0</v>
+        <v>5200</v>
       </c>
       <c r="E45" s="3">
-        <v>0</v>
+        <v>5200</v>
       </c>
       <c r="F45" s="3">
-        <v>0</v>
-      </c>
-      <c r="G45" s="3">
-        <v>0</v>
-      </c>
-      <c r="H45" s="3">
-        <v>0</v>
-      </c>
-      <c r="I45" s="3">
-        <v>0</v>
-      </c>
-      <c r="J45" s="3">
-        <v>0</v>
+        <v>2200</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>0</v>
+        <v>372700</v>
       </c>
       <c r="E46" s="3">
-        <v>0</v>
+        <v>238500</v>
       </c>
       <c r="F46" s="3">
-        <v>0</v>
-      </c>
-      <c r="G46" s="3">
-        <v>0</v>
-      </c>
-      <c r="H46" s="3">
-        <v>0</v>
-      </c>
-      <c r="I46" s="3">
-        <v>0</v>
-      </c>
-      <c r="J46" s="3">
-        <v>0</v>
+        <v>66000</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3">
+        <v>0</v>
+      </c>
+      <c r="M46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1732,66 +1942,84 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="E48" s="3">
-        <v>0</v>
+        <v>2600</v>
       </c>
       <c r="F48" s="3">
-        <v>0</v>
-      </c>
-      <c r="G48" s="3">
-        <v>0</v>
-      </c>
-      <c r="H48" s="3">
-        <v>0</v>
-      </c>
-      <c r="I48" s="3">
-        <v>0</v>
-      </c>
-      <c r="J48" s="3">
-        <v>0</v>
+        <v>2800</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3">
+        <v>0</v>
+      </c>
+      <c r="M48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>0</v>
+        <v>12500</v>
       </c>
       <c r="E49" s="3">
-        <v>0</v>
+        <v>12500</v>
       </c>
       <c r="F49" s="3">
-        <v>0</v>
-      </c>
-      <c r="G49" s="3">
-        <v>0</v>
-      </c>
-      <c r="H49" s="3">
-        <v>0</v>
-      </c>
-      <c r="I49" s="3">
-        <v>0</v>
-      </c>
-      <c r="J49" s="3">
-        <v>0</v>
+        <v>12500</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1819,8 +2047,14 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1848,37 +2082,49 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>0</v>
+        <v>5600</v>
       </c>
       <c r="E52" s="3">
-        <v>0</v>
+        <v>3600</v>
       </c>
       <c r="F52" s="3">
-        <v>0</v>
-      </c>
-      <c r="G52" s="3">
-        <v>0</v>
-      </c>
-      <c r="H52" s="3">
-        <v>0</v>
-      </c>
-      <c r="I52" s="3">
-        <v>0</v>
-      </c>
-      <c r="J52" s="3">
-        <v>0</v>
+        <v>6300</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3">
+        <v>0</v>
+      </c>
+      <c r="M52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1906,20 +2152,26 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>393200</v>
+      </c>
+      <c r="E54" s="3">
+        <v>257200</v>
+      </c>
+      <c r="F54" s="3">
         <v>87600</v>
       </c>
-      <c r="E54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G54" s="3" t="s">
         <v>3</v>
       </c>
@@ -1935,8 +2187,14 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1948,8 +2206,10 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1961,37 +2221,45 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>0</v>
+        <v>5400</v>
       </c>
       <c r="E57" s="3">
-        <v>0</v>
+        <v>4200</v>
       </c>
       <c r="F57" s="3">
-        <v>0</v>
-      </c>
-      <c r="G57" s="3">
-        <v>0</v>
-      </c>
-      <c r="H57" s="3">
-        <v>0</v>
-      </c>
-      <c r="I57" s="3">
-        <v>0</v>
-      </c>
-      <c r="J57" s="3">
-        <v>0</v>
+        <v>7000</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3">
+        <v>0</v>
+      </c>
+      <c r="M57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2019,66 +2287,84 @@
       <c r="K58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>0</v>
+        <v>18500</v>
       </c>
       <c r="E59" s="3">
-        <v>0</v>
+        <v>11400</v>
       </c>
       <c r="F59" s="3">
-        <v>0</v>
-      </c>
-      <c r="G59" s="3">
-        <v>0</v>
-      </c>
-      <c r="H59" s="3">
-        <v>0</v>
-      </c>
-      <c r="I59" s="3">
-        <v>0</v>
-      </c>
-      <c r="J59" s="3">
-        <v>0</v>
+        <v>9900</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3">
+        <v>0</v>
+      </c>
+      <c r="M59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>0</v>
+        <v>23900</v>
       </c>
       <c r="E60" s="3">
-        <v>0</v>
+        <v>15600</v>
       </c>
       <c r="F60" s="3">
-        <v>0</v>
-      </c>
-      <c r="G60" s="3">
-        <v>0</v>
-      </c>
-      <c r="H60" s="3">
-        <v>0</v>
-      </c>
-      <c r="I60" s="3">
-        <v>0</v>
-      </c>
-      <c r="J60" s="3">
-        <v>0</v>
+        <v>16900</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J60" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3">
+        <v>0</v>
+      </c>
+      <c r="M60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2106,37 +2392,49 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>0</v>
+        <v>3500</v>
       </c>
       <c r="E62" s="3">
-        <v>0</v>
+        <v>3700</v>
       </c>
       <c r="F62" s="3">
-        <v>0</v>
-      </c>
-      <c r="G62" s="3">
-        <v>0</v>
-      </c>
-      <c r="H62" s="3">
-        <v>0</v>
-      </c>
-      <c r="I62" s="3">
-        <v>0</v>
-      </c>
-      <c r="J62" s="3">
-        <v>0</v>
+        <v>3900</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3">
+        <v>0</v>
+      </c>
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2164,8 +2462,14 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2193,8 +2497,14 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2222,19 +2532,25 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>20900</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>3</v>
+        <v>52200</v>
+      </c>
+      <c r="E66" s="3">
+        <v>44000</v>
+      </c>
+      <c r="F66" s="3">
+        <v>27600</v>
       </c>
       <c r="G66" s="3" t="s">
         <v>3</v>
@@ -2251,8 +2567,14 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2264,8 +2586,10 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2293,8 +2617,14 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2322,20 +2652,26 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
+        <v>0</v>
+      </c>
+      <c r="E70" s="3">
+        <v>0</v>
+      </c>
+      <c r="F70" s="3">
         <v>155900</v>
       </c>
-      <c r="E70" s="3">
-        <v>0</v>
-      </c>
-      <c r="F70" s="3">
-        <v>0</v>
-      </c>
       <c r="G70" s="3">
         <v>0</v>
       </c>
@@ -2351,8 +2687,14 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2380,19 +2722,25 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-95900</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>3</v>
+        <v>-160500</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-126000</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-99100</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>3</v>
@@ -2409,8 +2757,14 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2438,8 +2792,14 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2467,8 +2827,14 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2496,37 +2862,49 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-155900</v>
+        <v>341100</v>
       </c>
       <c r="E76" s="3">
-        <v>0</v>
+        <v>213200</v>
       </c>
       <c r="F76" s="3">
-        <v>0</v>
-      </c>
-      <c r="G76" s="3">
-        <v>0</v>
-      </c>
-      <c r="H76" s="3">
-        <v>0</v>
-      </c>
-      <c r="I76" s="3">
-        <v>0</v>
-      </c>
-      <c r="J76" s="3">
-        <v>0</v>
+        <v>-95900</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J76" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K76" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3">
+        <v>0</v>
+      </c>
+      <c r="M76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2554,25 +2932,31 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="G80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2588,20 +2972,26 @@
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-34600</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-26900</v>
+      </c>
+      <c r="F81" s="3">
         <v>-16100</v>
       </c>
-      <c r="E81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G81" s="3" t="s">
         <v>3</v>
       </c>
@@ -2617,8 +3007,14 @@
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2630,13 +3026,15 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E83" s="3">
         <v>0</v>
@@ -2644,23 +3042,29 @@
       <c r="F83" s="3">
         <v>0</v>
       </c>
-      <c r="G83" s="3">
-        <v>0</v>
-      </c>
-      <c r="H83" s="3">
-        <v>0</v>
-      </c>
-      <c r="I83" s="3">
-        <v>0</v>
-      </c>
-      <c r="J83" s="3">
-        <v>0</v>
+      <c r="G83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2688,8 +3092,14 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2717,8 +3127,14 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2746,8 +3162,14 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2775,8 +3197,14 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2804,37 +3232,49 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>-20600</v>
       </c>
       <c r="E89" s="3">
-        <v>0</v>
+        <v>-22000</v>
       </c>
       <c r="F89" s="3">
-        <v>0</v>
-      </c>
-      <c r="G89" s="3">
-        <v>0</v>
-      </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
-      <c r="J89" s="3">
-        <v>0</v>
+        <v>-16900</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J89" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3">
+        <v>0</v>
+      </c>
+      <c r="M89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2846,8 +3286,10 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -2860,23 +3302,29 @@
       <c r="F91" s="3">
         <v>0</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3">
-        <v>0</v>
+      <c r="G91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2904,8 +3352,14 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2933,37 +3387,49 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-137900</v>
       </c>
       <c r="E94" s="3">
-        <v>0</v>
+        <v>-137300</v>
       </c>
       <c r="F94" s="3">
         <v>0</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3">
-        <v>0</v>
+      <c r="G94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2975,8 +3441,10 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3004,8 +3472,14 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3033,8 +3507,14 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3062,8 +3542,14 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3091,37 +3577,49 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>155900</v>
       </c>
       <c r="E100" s="3">
-        <v>0</v>
+        <v>191700</v>
       </c>
       <c r="F100" s="3">
-        <v>0</v>
-      </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3">
-        <v>0</v>
+        <v>13500</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3149,33 +3647,45 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>-2600</v>
       </c>
       <c r="E102" s="3">
-        <v>0</v>
+        <v>32400</v>
       </c>
       <c r="F102" s="3">
-        <v>0</v>
-      </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
-      <c r="J102" s="3">
-        <v>0</v>
+        <v>-3400</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J102" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ZNTL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ZNTL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="92">
   <si>
     <t>ZNTL</t>
   </si>
@@ -667,8 +667,8 @@
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -695,8 +695,8 @@
       <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>3</v>
+      <c r="G7" s="2">
+        <v>43555</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>3</v>
@@ -850,8 +850,8 @@
       <c r="F12" s="3">
         <v>13300</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>3</v>
+      <c r="G12" s="3">
+        <v>7100</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>3</v>
@@ -1002,8 +1002,8 @@
       <c r="F17" s="3">
         <v>16400</v>
       </c>
-      <c r="G17" s="3" t="s">
-        <v>3</v>
+      <c r="G17" s="3">
+        <v>8700</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>3</v>
@@ -1037,8 +1037,8 @@
       <c r="F18" s="3">
         <v>-16400</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>3</v>
+      <c r="G18" s="3">
+        <v>-8700</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
@@ -1087,8 +1087,8 @@
       <c r="F20" s="3">
         <v>200</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>3</v>
+      <c r="G20" s="3">
+        <v>100</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>3</v>
@@ -1122,8 +1122,8 @@
       <c r="F21" s="3">
         <v>-16200</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>3</v>
+      <c r="G21" s="3">
+        <v>-8600</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
@@ -1192,8 +1192,8 @@
       <c r="F23" s="3">
         <v>-16200</v>
       </c>
-      <c r="G23" s="3" t="s">
-        <v>3</v>
+      <c r="G23" s="3">
+        <v>-8700</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>3</v>
@@ -1227,8 +1227,8 @@
       <c r="F24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G24" s="3" t="s">
-        <v>3</v>
+      <c r="G24" s="3">
+        <v>0</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>3</v>
@@ -1297,8 +1297,8 @@
       <c r="F26" s="3">
         <v>-16200</v>
       </c>
-      <c r="G26" s="3" t="s">
-        <v>3</v>
+      <c r="G26" s="3">
+        <v>-8700</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>3</v>
@@ -1332,8 +1332,8 @@
       <c r="F27" s="3">
         <v>-16100</v>
       </c>
-      <c r="G27" s="3" t="s">
-        <v>3</v>
+      <c r="G27" s="3">
+        <v>-8300</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>3</v>
@@ -1507,8 +1507,8 @@
       <c r="F32" s="3">
         <v>-200</v>
       </c>
-      <c r="G32" s="3" t="s">
-        <v>3</v>
+      <c r="G32" s="3">
+        <v>-100</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>3</v>
@@ -1542,8 +1542,8 @@
       <c r="F33" s="3">
         <v>-16100</v>
       </c>
-      <c r="G33" s="3" t="s">
-        <v>3</v>
+      <c r="G33" s="3">
+        <v>-8300</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>3</v>
@@ -1612,8 +1612,8 @@
       <c r="F35" s="3">
         <v>-16100</v>
       </c>
-      <c r="G35" s="3" t="s">
-        <v>3</v>
+      <c r="G35" s="3">
+        <v>-8300</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>3</v>
@@ -1652,8 +1652,8 @@
       <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2" t="s">
-        <v>3</v>
+      <c r="G38" s="2">
+        <v>43555</v>
       </c>
       <c r="H38" s="2" t="s">
         <v>3</v>
@@ -2957,8 +2957,8 @@
       <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2" t="s">
-        <v>3</v>
+      <c r="G80" s="2">
+        <v>43555</v>
       </c>
       <c r="H80" s="2" t="s">
         <v>3</v>
@@ -2992,8 +2992,8 @@
       <c r="F81" s="3">
         <v>-16100</v>
       </c>
-      <c r="G81" s="3" t="s">
-        <v>3</v>
+      <c r="G81" s="3">
+        <v>-8300</v>
       </c>
       <c r="H81" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Quarterly/ZNTL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ZNTL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="92">
   <si>
     <t>ZNTL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,45 +665,46 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J7" s="2" t="s">
         <v>3</v>
       </c>
@@ -716,8 +717,14 @@
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -751,8 +758,14 @@
       <c r="M8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -786,8 +799,14 @@
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -821,8 +840,14 @@
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -836,29 +861,31 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>38400</v>
+      </c>
+      <c r="E12" s="3">
+        <v>29500</v>
+      </c>
+      <c r="F12" s="3">
         <v>24700</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>17500</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>13300</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>7100</v>
       </c>
-      <c r="H12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J12" s="3" t="s">
         <v>3</v>
       </c>
@@ -871,8 +898,14 @@
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -906,8 +939,14 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -941,8 +980,14 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -976,8 +1021,14 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -988,29 +1039,31 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>50300</v>
+      </c>
+      <c r="E17" s="3">
+        <v>40200</v>
+      </c>
+      <c r="F17" s="3">
         <v>34800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>27400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>16400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>8700</v>
       </c>
-      <c r="H17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1023,8 +1076,14 @@
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1032,20 +1091,20 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-40200</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-34800</v>
+      </c>
+      <c r="G18" s="3">
         <v>-27400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-16400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-8700</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1058,8 +1117,14 @@
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1073,8 +1138,10 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1082,19 +1149,19 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>300</v>
+      </c>
+      <c r="F20" s="3">
         <v>100</v>
-      </c>
-      <c r="F20" s="3">
-        <v>200</v>
       </c>
       <c r="G20" s="3">
         <v>100</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
+      <c r="H20" s="3">
+        <v>200</v>
+      </c>
+      <c r="I20" s="3">
+        <v>100</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>3</v>
@@ -1108,8 +1175,14 @@
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1117,20 +1190,20 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-39900</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-34600</v>
+      </c>
+      <c r="G21" s="3">
         <v>-27300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-16200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-8600</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1143,8 +1216,14 @@
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1178,29 +1257,35 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-50200</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-39900</v>
+      </c>
+      <c r="F23" s="3">
         <v>-34600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-27300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-16200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-8700</v>
       </c>
-      <c r="H23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1213,43 +1298,55 @@
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G24" s="3">
-        <v>0</v>
+        <v>200</v>
+      </c>
+      <c r="E24" s="3">
+        <v>400</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I24" s="3" t="s">
-        <v>3</v>
+      <c r="I24" s="3">
+        <v>0</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
-      <c r="L24" s="3">
-        <v>0</v>
+      <c r="K24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1283,29 +1380,35 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-50400</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-40400</v>
+      </c>
+      <c r="F26" s="3">
         <v>-34700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-27300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-16200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-8700</v>
       </c>
-      <c r="H26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1318,29 +1421,35 @@
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-49900</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-40300</v>
+      </c>
+      <c r="F27" s="3">
         <v>-34600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-26900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-16100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-8300</v>
       </c>
-      <c r="H27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1353,8 +1462,14 @@
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1388,8 +1503,14 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1423,8 +1544,14 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1458,8 +1585,14 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1493,8 +1626,14 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1502,19 +1641,19 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F32" s="3">
         <v>-100</v>
-      </c>
-      <c r="F32" s="3">
-        <v>-200</v>
       </c>
       <c r="G32" s="3">
         <v>-100</v>
       </c>
-      <c r="H32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
+      <c r="H32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I32" s="3">
+        <v>-100</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>3</v>
@@ -1528,29 +1667,35 @@
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-49900</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-40300</v>
+      </c>
+      <c r="F33" s="3">
         <v>-34600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-26900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-16100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-8300</v>
       </c>
-      <c r="H33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1563,8 +1708,14 @@
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1598,29 +1749,35 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-49900</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-40300</v>
+      </c>
+      <c r="F35" s="3">
         <v>-34600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-26900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-16100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-8300</v>
       </c>
-      <c r="H35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1633,34 +1790,40 @@
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="H38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1673,8 +1836,14 @@
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1688,8 +1857,10 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1703,26 +1874,28 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>29000</v>
+      </c>
+      <c r="E41" s="3">
+        <v>55000</v>
+      </c>
+      <c r="F41" s="3">
         <v>92600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>96000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>63700</v>
       </c>
-      <c r="G41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1738,23 +1911,29 @@
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>269400</v>
+      </c>
+      <c r="E42" s="3">
+        <v>283600</v>
+      </c>
+      <c r="F42" s="3">
         <v>274900</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>137200</v>
       </c>
-      <c r="F42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H42" s="3" t="s">
         <v>3</v>
       </c>
@@ -1764,34 +1943,40 @@
       <c r="J42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K42" s="3">
-        <v>0</v>
-      </c>
-      <c r="L42" s="3">
-        <v>0</v>
+      <c r="K42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E43" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="F43" s="3">
         <v>100</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
+      <c r="G43" s="3">
+        <v>100</v>
+      </c>
+      <c r="H43" s="3">
+        <v>100</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
@@ -1799,17 +1984,23 @@
       <c r="J43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K43" s="3">
-        <v>0</v>
-      </c>
-      <c r="L43" s="3">
-        <v>0</v>
+      <c r="K43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1843,78 +2034,96 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>7700</v>
+      </c>
+      <c r="E45" s="3">
+        <v>6200</v>
+      </c>
+      <c r="F45" s="3">
         <v>5200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>5200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>2200</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K45" s="3">
-        <v>0</v>
-      </c>
-      <c r="L45" s="3">
-        <v>0</v>
+      <c r="K45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L45" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>306400</v>
+      </c>
+      <c r="E46" s="3">
+        <v>345100</v>
+      </c>
+      <c r="F46" s="3">
         <v>372700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>238500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>66000</v>
       </c>
-      <c r="G46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K46" s="3">
-        <v>0</v>
-      </c>
-      <c r="L46" s="3">
-        <v>0</v>
+      <c r="K46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L46" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3">
+        <v>0</v>
+      </c>
+      <c r="O46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1948,43 +2157,55 @@
       <c r="M47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E48" s="3">
+        <v>3600</v>
+      </c>
+      <c r="F48" s="3">
         <v>2400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>2600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>2800</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K48" s="3">
-        <v>0</v>
-      </c>
-      <c r="L48" s="3">
-        <v>0</v>
+      <c r="K48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3">
+        <v>0</v>
+      </c>
+      <c r="O48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1997,11 +2218,11 @@
       <c r="F49" s="3">
         <v>12500</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>3</v>
+      <c r="G49" s="3">
+        <v>12500</v>
+      </c>
+      <c r="H49" s="3">
+        <v>12500</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>3</v>
@@ -2009,17 +2230,23 @@
       <c r="J49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K49" s="3">
-        <v>0</v>
-      </c>
-      <c r="L49" s="3">
-        <v>0</v>
+      <c r="K49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2053,8 +2280,14 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2088,43 +2321,55 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E52" s="3">
+        <v>4300</v>
+      </c>
+      <c r="F52" s="3">
         <v>5600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>3600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>6300</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K52" s="3">
-        <v>0</v>
-      </c>
-      <c r="L52" s="3">
-        <v>0</v>
+      <c r="K52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+      <c r="O52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2158,26 +2403,32 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>328400</v>
+      </c>
+      <c r="E54" s="3">
+        <v>365600</v>
+      </c>
+      <c r="F54" s="3">
         <v>393200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>257200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>87600</v>
       </c>
-      <c r="G54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2193,8 +2444,14 @@
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2208,8 +2465,10 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2223,43 +2482,51 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>8300</v>
+      </c>
+      <c r="E57" s="3">
+        <v>8700</v>
+      </c>
+      <c r="F57" s="3">
         <v>5400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>4200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>7000</v>
       </c>
-      <c r="G57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K57" s="3">
-        <v>0</v>
-      </c>
-      <c r="L57" s="3">
-        <v>0</v>
+      <c r="K57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L57" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3">
+        <v>0</v>
+      </c>
+      <c r="O57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2293,78 +2560,96 @@
       <c r="M58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>24500</v>
+      </c>
+      <c r="E59" s="3">
+        <v>19900</v>
+      </c>
+      <c r="F59" s="3">
         <v>18500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>11400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>9900</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K59" s="3">
-        <v>0</v>
-      </c>
-      <c r="L59" s="3">
-        <v>0</v>
+      <c r="K59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L59" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3">
+        <v>0</v>
+      </c>
+      <c r="O59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>32800</v>
+      </c>
+      <c r="E60" s="3">
+        <v>28600</v>
+      </c>
+      <c r="F60" s="3">
         <v>23900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>15600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>16900</v>
       </c>
-      <c r="G60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K60" s="3">
-        <v>0</v>
-      </c>
-      <c r="L60" s="3">
-        <v>0</v>
+      <c r="K60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L60" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3">
+        <v>0</v>
+      </c>
+      <c r="O60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2398,43 +2683,55 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E62" s="3">
+        <v>3600</v>
+      </c>
+      <c r="F62" s="3">
         <v>3500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>3700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>3900</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
-      </c>
-      <c r="L62" s="3">
-        <v>0</v>
+      <c r="K62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+      <c r="O62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2468,8 +2765,14 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2503,8 +2806,14 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2538,26 +2847,32 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>60000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>57000</v>
+      </c>
+      <c r="F66" s="3">
         <v>52200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>44000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>27600</v>
       </c>
-      <c r="G66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2573,8 +2888,14 @@
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2588,8 +2909,10 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2623,8 +2946,14 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2658,8 +2987,14 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2670,14 +3005,14 @@
         <v>0</v>
       </c>
       <c r="F70" s="3">
+        <v>0</v>
+      </c>
+      <c r="G70" s="3">
+        <v>0</v>
+      </c>
+      <c r="H70" s="3">
         <v>155900</v>
       </c>
-      <c r="G70" s="3">
-        <v>0</v>
-      </c>
-      <c r="H70" s="3">
-        <v>0</v>
-      </c>
       <c r="I70" s="3">
         <v>0</v>
       </c>
@@ -2693,8 +3028,14 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2728,26 +3069,32 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-250700</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-200800</v>
+      </c>
+      <c r="F72" s="3">
         <v>-160500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-126000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-99100</v>
       </c>
-      <c r="G72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2763,8 +3110,14 @@
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2798,8 +3151,14 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2833,8 +3192,14 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2868,43 +3233,55 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>268400</v>
+      </c>
+      <c r="E76" s="3">
+        <v>308600</v>
+      </c>
+      <c r="F76" s="3">
         <v>341100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>213200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-95900</v>
       </c>
-      <c r="G76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K76" s="3">
-        <v>0</v>
-      </c>
-      <c r="L76" s="3">
-        <v>0</v>
+      <c r="K76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L76" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M76" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3">
+        <v>0</v>
+      </c>
+      <c r="O76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2938,34 +3315,40 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="H80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2978,29 +3361,35 @@
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-49900</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-40300</v>
+      </c>
+      <c r="F81" s="3">
         <v>-34600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-26900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-16100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-8300</v>
       </c>
-      <c r="H81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3013,8 +3402,14 @@
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3028,8 +3423,10 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3040,31 +3437,37 @@
         <v>0</v>
       </c>
       <c r="F83" s="3">
-        <v>0</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="G83" s="3">
+        <v>0</v>
+      </c>
+      <c r="H83" s="3">
+        <v>0</v>
+      </c>
+      <c r="I83" s="3">
+        <v>0</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K83" s="3">
-        <v>0</v>
-      </c>
-      <c r="L83" s="3">
-        <v>0</v>
+      <c r="K83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3098,8 +3501,14 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3133,8 +3542,14 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3168,8 +3583,14 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3203,8 +3624,14 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3238,43 +3665,55 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-37500</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-27400</v>
+      </c>
+      <c r="F89" s="3">
         <v>-20600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-22000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-16900</v>
       </c>
-      <c r="G89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
+      <c r="I89" s="3">
+        <v>-9000</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K89" s="3">
-        <v>0</v>
-      </c>
-      <c r="L89" s="3">
-        <v>0</v>
+      <c r="K89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L89" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3">
+        <v>0</v>
+      </c>
+      <c r="O89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3288,43 +3727,51 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="E91" s="3">
-        <v>0</v>
+        <v>-700</v>
       </c>
       <c r="F91" s="3">
         <v>0</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
+      <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
-      <c r="L91" s="3">
-        <v>0</v>
+      <c r="K91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3358,8 +3805,14 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3393,43 +3846,55 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>13500</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-9600</v>
+      </c>
+      <c r="F94" s="3">
         <v>-137900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-137300</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
+      <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
+        <v>0</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
-      <c r="L94" s="3">
-        <v>0</v>
+      <c r="K94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3443,8 +3908,10 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3478,8 +3945,14 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3513,8 +3986,14 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3548,8 +4027,14 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3583,43 +4068,55 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F100" s="3">
         <v>155900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>191700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>13500</v>
       </c>
-      <c r="G100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
+      <c r="I100" s="3">
+        <v>0</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
-      <c r="L100" s="3">
-        <v>0</v>
+      <c r="K100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3653,39 +4150,51 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-24000</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-37600</v>
+      </c>
+      <c r="F102" s="3">
         <v>-2600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>32400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-3400</v>
       </c>
-      <c r="G102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
+      <c r="I102" s="3">
+        <v>-9000</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
-      <c r="L102" s="3">
-        <v>0</v>
+      <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ZNTL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ZNTL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="92">
   <si>
     <t>ZNTL</t>
   </si>
@@ -3445,8 +3445,8 @@
       <c r="H83" s="3">
         <v>0</v>
       </c>
-      <c r="I83" s="3">
-        <v>0</v>
+      <c r="I83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>3</v>
@@ -3691,8 +3691,8 @@
       <c r="H89" s="3">
         <v>-16900</v>
       </c>
-      <c r="I89" s="3">
-        <v>-9000</v>
+      <c r="I89" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
@@ -3749,8 +3749,8 @@
       <c r="H91" s="3">
         <v>0</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
+      <c r="I91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>3</v>
@@ -3872,8 +3872,8 @@
       <c r="H94" s="3">
         <v>0</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
+      <c r="I94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
@@ -4094,8 +4094,8 @@
       <c r="H100" s="3">
         <v>13500</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
+      <c r="I100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
@@ -4176,8 +4176,8 @@
       <c r="H102" s="3">
         <v>-3400</v>
       </c>
-      <c r="I102" s="3">
-        <v>-9000</v>
+      <c r="I102" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Quarterly/ZNTL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ZNTL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="92">
   <si>
     <t>ZNTL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,52 +665,54 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
@@ -723,8 +725,14 @@
       <c r="O7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -764,8 +772,14 @@
       <c r="O8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -805,8 +819,14 @@
       <c r="O9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -846,8 +866,14 @@
       <c r="O10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -863,35 +889,37 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>45200</v>
+      </c>
+      <c r="E12" s="3">
+        <v>44800</v>
+      </c>
+      <c r="F12" s="3">
         <v>38400</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>29500</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>24700</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>17500</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>13300</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>7100</v>
       </c>
-      <c r="J12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
@@ -904,8 +932,14 @@
       <c r="O12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -945,31 +979,37 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>-42800</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -986,8 +1026,14 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1027,8 +1073,14 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1041,35 +1093,37 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>11300</v>
+      </c>
+      <c r="E17" s="3">
+        <v>55100</v>
+      </c>
+      <c r="F17" s="3">
         <v>50300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>40200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>34800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>27400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>16400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>8700</v>
       </c>
-      <c r="J17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1082,8 +1136,14 @@
       <c r="O17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1091,26 +1151,26 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-55100</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-50300</v>
+      </c>
+      <c r="G18" s="3">
         <v>-40200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-34800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-27400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-16400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-8700</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1123,8 +1183,14 @@
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1140,8 +1206,10 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1149,25 +1217,25 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F20" s="3">
         <v>100</v>
       </c>
       <c r="G20" s="3">
+        <v>300</v>
+      </c>
+      <c r="H20" s="3">
         <v>100</v>
-      </c>
-      <c r="H20" s="3">
-        <v>200</v>
       </c>
       <c r="I20" s="3">
         <v>100</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
+      <c r="J20" s="3">
+        <v>200</v>
+      </c>
+      <c r="K20" s="3">
+        <v>100</v>
       </c>
       <c r="L20" s="3" t="s">
         <v>3</v>
@@ -1181,8 +1249,14 @@
       <c r="O20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1190,26 +1264,26 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-54900</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-50200</v>
+      </c>
+      <c r="G21" s="3">
         <v>-39900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-34600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-27300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-16200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-8600</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1222,8 +1296,14 @@
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1263,35 +1343,41 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-11200</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-55000</v>
+      </c>
+      <c r="F23" s="3">
         <v>-50200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-39900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-34600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-27300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-16200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-8700</v>
       </c>
-      <c r="J23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1304,49 +1390,61 @@
       <c r="O23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
         <v>200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>400</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I24" s="3">
-        <v>0</v>
+      <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>3</v>
+      <c r="K24" s="3">
+        <v>0</v>
       </c>
       <c r="L24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
-      <c r="N24" s="3">
-        <v>0</v>
+      <c r="M24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1386,35 +1484,41 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-10500</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-55100</v>
+      </c>
+      <c r="F26" s="3">
         <v>-50400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-40400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-34700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-27300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-16200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-8700</v>
       </c>
-      <c r="J26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1427,35 +1531,41 @@
       <c r="O26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-54600</v>
+      </c>
+      <c r="F27" s="3">
         <v>-49900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-40300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-34600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-26900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-16100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-8300</v>
       </c>
-      <c r="J27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1468,8 +1578,14 @@
       <c r="O27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1509,8 +1625,14 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1550,8 +1672,14 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1591,8 +1719,14 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1632,8 +1766,14 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1641,25 +1781,25 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="F32" s="3">
         <v>-100</v>
       </c>
       <c r="G32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="H32" s="3">
         <v>-100</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-200</v>
       </c>
       <c r="I32" s="3">
         <v>-100</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
+      <c r="J32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K32" s="3">
+        <v>-100</v>
       </c>
       <c r="L32" s="3" t="s">
         <v>3</v>
@@ -1673,35 +1813,41 @@
       <c r="O32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-54600</v>
+      </c>
+      <c r="F33" s="3">
         <v>-49900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-40300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-34600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-26900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-16100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-8300</v>
       </c>
-      <c r="J33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1714,8 +1860,14 @@
       <c r="O33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1755,35 +1907,41 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-54600</v>
+      </c>
+      <c r="F35" s="3">
         <v>-49900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-40300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-34600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-26900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-16100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-8300</v>
       </c>
-      <c r="J35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1796,40 +1954,46 @@
       <c r="O35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1842,8 +2006,14 @@
       <c r="O38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1859,8 +2029,10 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1876,32 +2048,34 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>40800</v>
+      </c>
+      <c r="E41" s="3">
+        <v>49200</v>
+      </c>
+      <c r="F41" s="3">
         <v>29000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>55000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>92600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>96000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>63700</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1917,29 +2091,35 @@
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>326000</v>
+      </c>
+      <c r="E42" s="3">
+        <v>201700</v>
+      </c>
+      <c r="F42" s="3">
         <v>269400</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>283600</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>274900</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>137200</v>
       </c>
-      <c r="H42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J42" s="3" t="s">
         <v>3</v>
       </c>
@@ -1949,40 +2129,46 @@
       <c r="L42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M42" s="3">
-        <v>0</v>
-      </c>
-      <c r="N42" s="3">
-        <v>0</v>
+      <c r="M42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>100</v>
+      </c>
+      <c r="E43" s="3">
+        <v>0</v>
+      </c>
+      <c r="F43" s="3">
         <v>200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>400</v>
-      </c>
-      <c r="F43" s="3">
-        <v>100</v>
-      </c>
-      <c r="G43" s="3">
-        <v>100</v>
       </c>
       <c r="H43" s="3">
         <v>100</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>3</v>
+      <c r="I43" s="3">
+        <v>100</v>
+      </c>
+      <c r="J43" s="3">
+        <v>100</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>3</v>
@@ -1990,17 +2176,23 @@
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M43" s="3">
-        <v>0</v>
-      </c>
-      <c r="N43" s="3">
-        <v>0</v>
+      <c r="M43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2040,113 +2232,131 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>10700</v>
+      </c>
+      <c r="E45" s="3">
+        <v>8500</v>
+      </c>
+      <c r="F45" s="3">
         <v>7700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>6200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>5200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>5200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>2200</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M45" s="3">
-        <v>0</v>
-      </c>
-      <c r="N45" s="3">
-        <v>0</v>
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N45" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>377600</v>
+      </c>
+      <c r="E46" s="3">
+        <v>259400</v>
+      </c>
+      <c r="F46" s="3">
         <v>306400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>345100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>372700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>238500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>66000</v>
       </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M46" s="3">
-        <v>0</v>
-      </c>
-      <c r="N46" s="3">
-        <v>0</v>
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N46" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>0</v>
-      </c>
-      <c r="E47" s="3">
-        <v>0</v>
-      </c>
-      <c r="F47" s="3">
-        <v>0</v>
-      </c>
-      <c r="G47" s="3">
-        <v>0</v>
-      </c>
-      <c r="H47" s="3">
-        <v>0</v>
-      </c>
-      <c r="I47" s="3">
-        <v>0</v>
-      </c>
-      <c r="J47" s="3">
-        <v>0</v>
+        <v>39300</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K47" s="3">
         <v>0</v>
@@ -2163,54 +2373,66 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E48" s="3">
         <v>3400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
+        <v>3400</v>
+      </c>
+      <c r="G48" s="3">
         <v>3600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>2400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>2600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>2800</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M48" s="3">
-        <v>0</v>
-      </c>
-      <c r="N48" s="3">
-        <v>0</v>
+      <c r="M48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>12500</v>
+        <v>3700</v>
       </c>
       <c r="E49" s="3">
         <v>12500</v>
@@ -2224,11 +2446,11 @@
       <c r="H49" s="3">
         <v>12500</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>3</v>
+      <c r="I49" s="3">
+        <v>12500</v>
+      </c>
+      <c r="J49" s="3">
+        <v>12500</v>
       </c>
       <c r="K49" s="3" t="s">
         <v>3</v>
@@ -2236,17 +2458,23 @@
       <c r="L49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M49" s="3">
-        <v>0</v>
-      </c>
-      <c r="N49" s="3">
-        <v>0</v>
+      <c r="M49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2286,8 +2514,14 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2327,49 +2561,61 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>9100</v>
+      </c>
+      <c r="E52" s="3">
+        <v>8500</v>
+      </c>
+      <c r="F52" s="3">
         <v>6100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>4300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>5600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>3600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>6300</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M52" s="3">
-        <v>0</v>
-      </c>
-      <c r="N52" s="3">
-        <v>0</v>
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2409,32 +2655,38 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>435100</v>
+      </c>
+      <c r="E54" s="3">
+        <v>284000</v>
+      </c>
+      <c r="F54" s="3">
         <v>328400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>365600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>393200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>257200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>87600</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2450,8 +2702,14 @@
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2467,8 +2725,10 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2484,49 +2744,57 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E57" s="3">
         <v>8300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
+        <v>8300</v>
+      </c>
+      <c r="G57" s="3">
         <v>8700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>5400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>4200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>7000</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M57" s="3">
-        <v>0</v>
-      </c>
-      <c r="N57" s="3">
-        <v>0</v>
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N57" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2566,90 +2834,108 @@
       <c r="O58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>31400</v>
+      </c>
+      <c r="E59" s="3">
+        <v>25300</v>
+      </c>
+      <c r="F59" s="3">
         <v>24500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>19900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>18500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>11400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>9900</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M59" s="3">
-        <v>0</v>
-      </c>
-      <c r="N59" s="3">
-        <v>0</v>
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N59" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>39400</v>
+      </c>
+      <c r="E60" s="3">
+        <v>33600</v>
+      </c>
+      <c r="F60" s="3">
         <v>32800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>28600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>23900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>15600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>16900</v>
       </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M60" s="3">
-        <v>0</v>
-      </c>
-      <c r="N60" s="3">
-        <v>0</v>
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N60" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2689,49 +2975,61 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E62" s="3">
+        <v>2800</v>
+      </c>
+      <c r="F62" s="3">
         <v>2900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>3600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>3500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>3700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>3900</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M62" s="3">
-        <v>0</v>
-      </c>
-      <c r="N62" s="3">
-        <v>0</v>
+      <c r="M62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2771,8 +3069,14 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2812,8 +3116,14 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2853,32 +3163,38 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>41600</v>
+      </c>
+      <c r="E66" s="3">
+        <v>60100</v>
+      </c>
+      <c r="F66" s="3">
         <v>60000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>57000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>52200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>44000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>27600</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2894,8 +3210,14 @@
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2911,8 +3233,10 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2952,8 +3276,14 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2993,8 +3323,14 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3011,14 +3347,14 @@
         <v>0</v>
       </c>
       <c r="H70" s="3">
+        <v>0</v>
+      </c>
+      <c r="I70" s="3">
+        <v>0</v>
+      </c>
+      <c r="J70" s="3">
         <v>155900</v>
       </c>
-      <c r="I70" s="3">
-        <v>0</v>
-      </c>
-      <c r="J70" s="3">
-        <v>0</v>
-      </c>
       <c r="K70" s="3">
         <v>0</v>
       </c>
@@ -3034,8 +3370,14 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3075,32 +3417,38 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-309500</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-305300</v>
+      </c>
+      <c r="F72" s="3">
         <v>-250700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-200800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-160500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-126000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-99100</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3116,8 +3464,14 @@
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3157,8 +3511,14 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3198,8 +3558,14 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3239,49 +3605,61 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>393400</v>
+      </c>
+      <c r="E76" s="3">
+        <v>223800</v>
+      </c>
+      <c r="F76" s="3">
         <v>268400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>308600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>341100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>213200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-95900</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M76" s="3">
-        <v>0</v>
-      </c>
-      <c r="N76" s="3">
-        <v>0</v>
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N76" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O76" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3321,40 +3699,46 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3367,35 +3751,41 @@
       <c r="O80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-54600</v>
+      </c>
+      <c r="F81" s="3">
         <v>-49900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-40300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-34600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-26900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-16100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-8300</v>
       </c>
-      <c r="J81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3408,8 +3798,14 @@
       <c r="O81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3425,8 +3821,10 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3434,7 +3832,7 @@
         <v>100</v>
       </c>
       <c r="E83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F83" s="3">
         <v>100</v>
@@ -3443,13 +3841,13 @@
         <v>0</v>
       </c>
       <c r="H83" s="3">
-        <v>0</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="I83" s="3">
+        <v>0</v>
+      </c>
+      <c r="J83" s="3">
+        <v>0</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
@@ -3457,17 +3855,23 @@
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M83" s="3">
-        <v>0</v>
-      </c>
-      <c r="N83" s="3">
-        <v>0</v>
+      <c r="M83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3507,8 +3911,14 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3548,8 +3958,14 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3589,8 +4005,14 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3630,8 +4052,14 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3671,49 +4099,61 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-33500</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-46100</v>
+      </c>
+      <c r="F89" s="3">
         <v>-37500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-27400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-20600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-22000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-16900</v>
       </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M89" s="3">
-        <v>0</v>
-      </c>
-      <c r="N89" s="3">
-        <v>0</v>
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N89" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3729,31 +4169,33 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F91" s="3">
         <v>-400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-700</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
       <c r="H91" s="3">
         <v>0</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
@@ -3761,17 +4203,23 @@
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
-      <c r="N91" s="3">
-        <v>0</v>
+      <c r="M91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3811,8 +4259,14 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3852,31 +4306,37 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-141400</v>
+      </c>
+      <c r="E94" s="3">
+        <v>66600</v>
+      </c>
+      <c r="F94" s="3">
         <v>13500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-9600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-137900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-137300</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
+      <c r="J94" s="3">
+        <v>0</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
@@ -3884,17 +4344,23 @@
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
-      <c r="N94" s="3">
-        <v>0</v>
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3910,8 +4376,10 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3951,8 +4419,14 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3992,8 +4466,14 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4033,8 +4513,14 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4074,49 +4560,61 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>166600</v>
       </c>
       <c r="E100" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>-600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>155900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>191700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>13500</v>
       </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
-      <c r="N100" s="3">
-        <v>0</v>
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4156,45 +4654,57 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="E102" s="3">
+        <v>20200</v>
+      </c>
+      <c r="F102" s="3">
         <v>-24000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-37600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-2600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>32400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-3400</v>
       </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
-      <c r="N102" s="3">
-        <v>0</v>
+      <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ZNTL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ZNTL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="92">
   <si>
     <t>ZNTL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,57 +665,57 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
@@ -731,8 +731,11 @@
       <c r="Q7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -778,8 +781,11 @@
       <c r="Q8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -825,8 +831,11 @@
       <c r="Q9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -872,8 +881,11 @@
       <c r="Q10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -891,38 +903,39 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>38400</v>
+      </c>
+      <c r="E12" s="3">
         <v>45200</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>44800</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>38400</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>29500</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>24700</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>17500</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>13300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>7100</v>
       </c>
-      <c r="L12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
@@ -938,8 +951,11 @@
       <c r="Q12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -985,17 +1001,20 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>-42800</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1011,8 +1030,8 @@
       <c r="J14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -1032,8 +1051,11 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1079,8 +1101,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1095,38 +1120,39 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>48200</v>
+      </c>
+      <c r="E17" s="3">
         <v>11300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>55100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>50300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>40200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>34800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>27400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>16400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>8700</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1142,8 +1168,11 @@
       <c r="Q17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1151,29 +1180,29 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-11300</v>
+      </c>
+      <c r="F18" s="3">
         <v>-55100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-50300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-40200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-34800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-27400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-16400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-8700</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1189,8 +1218,11 @@
       <c r="Q18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1208,8 +1240,9 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1223,23 +1256,23 @@
         <v>100</v>
       </c>
       <c r="G20" s="3">
+        <v>100</v>
+      </c>
+      <c r="H20" s="3">
         <v>300</v>
-      </c>
-      <c r="H20" s="3">
-        <v>100</v>
       </c>
       <c r="I20" s="3">
         <v>100</v>
       </c>
       <c r="J20" s="3">
+        <v>100</v>
+      </c>
+      <c r="K20" s="3">
         <v>200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>100</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1255,8 +1288,11 @@
       <c r="Q20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1264,29 +1300,29 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-11100</v>
+      </c>
+      <c r="F21" s="3">
         <v>-54900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-50200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-39900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-34600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-27300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-16200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-8600</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1302,8 +1338,11 @@
       <c r="Q21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1349,38 +1388,41 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-48100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-11200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-55000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-50200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-39900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-34600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-27300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-16200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-8700</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1396,37 +1438,40 @@
       <c r="Q23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>200</v>
+      </c>
+      <c r="E24" s="3">
         <v>-700</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
       <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
         <v>200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>400</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>3</v>
+      <c r="I24" s="3">
+        <v>0</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
-      <c r="L24" s="3" t="s">
-        <v>3</v>
+      <c r="K24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L24" s="3">
+        <v>0</v>
       </c>
       <c r="M24" s="3" t="s">
         <v>3</v>
@@ -1434,8 +1479,8 @@
       <c r="N24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O24" s="3">
-        <v>0</v>
+      <c r="O24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P24" s="3">
         <v>0</v>
@@ -1443,8 +1488,11 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1490,38 +1538,41 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-48300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-10500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-55100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-50400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-40400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-34700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-27300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-16200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-8700</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1537,38 +1588,41 @@
       <c r="Q26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-50100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-4200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-54600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-49900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-40300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-34600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-26900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-16100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-8300</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1584,8 +1638,11 @@
       <c r="Q27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1631,8 +1688,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1678,8 +1738,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1725,8 +1788,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1772,8 +1838,11 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1787,23 +1856,23 @@
         <v>-100</v>
       </c>
       <c r="G32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H32" s="3">
         <v>-300</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-100</v>
       </c>
       <c r="I32" s="3">
         <v>-100</v>
       </c>
       <c r="J32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K32" s="3">
         <v>-200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-100</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1819,38 +1888,41 @@
       <c r="Q32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-50100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-4200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-54600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-49900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-40300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-34600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-26900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-16100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-8300</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1866,8 +1938,11 @@
       <c r="Q33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1913,38 +1988,41 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-50100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-4200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-54600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-49900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-40300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-34600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-26900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-16100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-8300</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1960,43 +2038,46 @@
       <c r="Q35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2012,8 +2093,11 @@
       <c r="Q38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2031,8 +2115,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2050,35 +2135,36 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>59700</v>
+      </c>
+      <c r="E41" s="3">
         <v>40800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>49200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>29000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>55000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>92600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>96000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>63700</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2097,32 +2183,35 @@
       <c r="Q41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>280200</v>
+      </c>
+      <c r="E42" s="3">
         <v>326000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>201700</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>269400</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>283600</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>274900</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>137200</v>
       </c>
-      <c r="J42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2135,8 +2224,8 @@
       <c r="N42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O42" s="3">
-        <v>0</v>
+      <c r="O42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P42" s="3">
         <v>0</v>
@@ -2144,25 +2233,28 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>0</v>
+      </c>
+      <c r="E43" s="3">
         <v>100</v>
       </c>
-      <c r="E43" s="3">
-        <v>0</v>
-      </c>
       <c r="F43" s="3">
+        <v>0</v>
+      </c>
+      <c r="G43" s="3">
         <v>200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>400</v>
-      </c>
-      <c r="H43" s="3">
-        <v>100</v>
       </c>
       <c r="I43" s="3">
         <v>100</v>
@@ -2170,8 +2262,8 @@
       <c r="J43" s="3">
         <v>100</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>3</v>
+      <c r="K43" s="3">
+        <v>100</v>
       </c>
       <c r="L43" s="3" t="s">
         <v>3</v>
@@ -2182,8 +2274,8 @@
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O43" s="3">
-        <v>0</v>
+      <c r="O43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P43" s="3">
         <v>0</v>
@@ -2191,8 +2283,11 @@
       <c r="Q43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2238,35 +2333,38 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>10900</v>
+      </c>
+      <c r="E45" s="3">
         <v>10700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>8500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>7700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>6200</v>
-      </c>
-      <c r="H45" s="3">
-        <v>5200</v>
       </c>
       <c r="I45" s="3">
         <v>5200</v>
       </c>
       <c r="J45" s="3">
+        <v>5200</v>
+      </c>
+      <c r="K45" s="3">
         <v>2200</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2276,8 +2374,8 @@
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O45" s="3">
-        <v>0</v>
+      <c r="O45" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P45" s="3">
         <v>0</v>
@@ -2285,35 +2383,38 @@
       <c r="Q45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>350800</v>
+      </c>
+      <c r="E46" s="3">
         <v>377600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>259400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>306400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>345100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>372700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>238500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>66000</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2323,8 +2424,8 @@
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O46" s="3">
-        <v>0</v>
+      <c r="O46" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P46" s="3">
         <v>0</v>
@@ -2332,17 +2433,20 @@
       <c r="Q46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>37500</v>
+      </c>
+      <c r="E47" s="3">
         <v>39300</v>
       </c>
-      <c r="E47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2358,8 +2462,8 @@
       <c r="J47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K47" s="3">
-        <v>0</v>
+      <c r="K47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L47" s="3">
         <v>0</v>
@@ -2379,35 +2483,38 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>52800</v>
+      </c>
+      <c r="E48" s="3">
         <v>5400</v>
-      </c>
-      <c r="E48" s="3">
-        <v>3400</v>
       </c>
       <c r="F48" s="3">
         <v>3400</v>
       </c>
       <c r="G48" s="3">
+        <v>3400</v>
+      </c>
+      <c r="H48" s="3">
         <v>3600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2800</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2417,8 +2524,8 @@
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O48" s="3">
-        <v>0</v>
+      <c r="O48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P48" s="3">
         <v>0</v>
@@ -2426,8 +2533,11 @@
       <c r="Q48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2435,7 +2545,7 @@
         <v>3700</v>
       </c>
       <c r="E49" s="3">
-        <v>12500</v>
+        <v>3700</v>
       </c>
       <c r="F49" s="3">
         <v>12500</v>
@@ -2452,8 +2562,8 @@
       <c r="J49" s="3">
         <v>12500</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>3</v>
+      <c r="K49" s="3">
+        <v>12500</v>
       </c>
       <c r="L49" s="3" t="s">
         <v>3</v>
@@ -2464,8 +2574,8 @@
       <c r="N49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O49" s="3">
-        <v>0</v>
+      <c r="O49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P49" s="3">
         <v>0</v>
@@ -2473,8 +2583,11 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2520,8 +2633,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2567,35 +2683,38 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>9700</v>
+      </c>
+      <c r="E52" s="3">
         <v>9100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>8500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>6100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>4300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>5600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>3600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>6300</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2605,8 +2724,8 @@
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O52" s="3">
-        <v>0</v>
+      <c r="O52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P52" s="3">
         <v>0</v>
@@ -2614,8 +2733,11 @@
       <c r="Q52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2661,35 +2783,38 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>454500</v>
+      </c>
+      <c r="E54" s="3">
         <v>435100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>284000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>328400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>365600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>393200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>257200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>87600</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2708,8 +2833,11 @@
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2727,8 +2855,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2746,35 +2875,36 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>11600</v>
+      </c>
+      <c r="E57" s="3">
         <v>8000</v>
-      </c>
-      <c r="E57" s="3">
-        <v>8300</v>
       </c>
       <c r="F57" s="3">
         <v>8300</v>
       </c>
       <c r="G57" s="3">
+        <v>8300</v>
+      </c>
+      <c r="H57" s="3">
         <v>8700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>5400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>4200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>7000</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2784,8 +2914,8 @@
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O57" s="3">
-        <v>0</v>
+      <c r="O57" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P57" s="3">
         <v>0</v>
@@ -2793,8 +2923,11 @@
       <c r="Q57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2840,35 +2973,38 @@
       <c r="Q58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>32400</v>
+      </c>
+      <c r="E59" s="3">
         <v>31400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>25300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>24500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>19900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>18500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>11400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>9900</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2878,8 +3014,8 @@
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O59" s="3">
-        <v>0</v>
+      <c r="O59" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P59" s="3">
         <v>0</v>
@@ -2887,35 +3023,38 @@
       <c r="Q59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>43900</v>
+      </c>
+      <c r="E60" s="3">
         <v>39400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>33600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>32800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>28600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>23900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>15600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>16900</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2925,8 +3064,8 @@
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O60" s="3">
-        <v>0</v>
+      <c r="O60" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P60" s="3">
         <v>0</v>
@@ -2934,8 +3073,11 @@
       <c r="Q60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2981,35 +3123,38 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>46100</v>
+      </c>
+      <c r="E62" s="3">
         <v>1700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>3600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>3500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>3700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>3900</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3019,8 +3164,8 @@
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O62" s="3">
-        <v>0</v>
+      <c r="O62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P62" s="3">
         <v>0</v>
@@ -3028,8 +3173,11 @@
       <c r="Q62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3075,8 +3223,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3122,8 +3273,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3169,35 +3323,38 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>90600</v>
+      </c>
+      <c r="E66" s="3">
         <v>41600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>60100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>60000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>57000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>52200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>44000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>27600</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3216,8 +3373,11 @@
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3235,8 +3395,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3282,8 +3443,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3329,8 +3493,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3353,11 +3520,11 @@
         <v>0</v>
       </c>
       <c r="J70" s="3">
+        <v>0</v>
+      </c>
+      <c r="K70" s="3">
         <v>155900</v>
       </c>
-      <c r="K70" s="3">
-        <v>0</v>
-      </c>
       <c r="L70" s="3">
         <v>0</v>
       </c>
@@ -3376,8 +3543,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3423,35 +3593,38 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-359600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-309500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-305300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-250700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-200800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-160500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-126000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-99100</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3470,8 +3643,11 @@
       <c r="Q72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3517,8 +3693,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3564,8 +3743,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3611,35 +3793,38 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>364000</v>
+      </c>
+      <c r="E76" s="3">
         <v>393400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>223800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>268400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>308600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>341100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>213200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-95900</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3649,8 +3834,8 @@
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O76" s="3">
-        <v>0</v>
+      <c r="O76" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P76" s="3">
         <v>0</v>
@@ -3658,8 +3843,11 @@
       <c r="Q76" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3705,43 +3893,46 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3757,38 +3948,41 @@
       <c r="Q80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-50100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-4200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-54600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-49900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-40300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-34600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-26900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-16100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-8300</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3804,8 +3998,11 @@
       <c r="Q81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3823,13 +4020,14 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E83" s="3">
         <v>100</v>
@@ -3838,19 +4036,19 @@
         <v>100</v>
       </c>
       <c r="G83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H83" s="3">
+        <v>0</v>
+      </c>
+      <c r="I83" s="3">
         <v>100</v>
       </c>
-      <c r="I83" s="3">
-        <v>0</v>
-      </c>
       <c r="J83" s="3">
         <v>0</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>3</v>
+      <c r="K83" s="3">
+        <v>0</v>
       </c>
       <c r="L83" s="3" t="s">
         <v>3</v>
@@ -3861,8 +4059,8 @@
       <c r="N83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O83" s="3">
-        <v>0</v>
+      <c r="O83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P83" s="3">
         <v>0</v>
@@ -3870,8 +4068,11 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3917,8 +4118,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3964,8 +4168,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4011,8 +4218,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4058,8 +4268,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4105,35 +4318,38 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-37000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-33500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-46100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-37500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-27400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-20600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-22000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-16900</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
@@ -4143,8 +4359,8 @@
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O89" s="3">
-        <v>0</v>
+      <c r="O89" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P89" s="3">
         <v>0</v>
@@ -4152,8 +4368,11 @@
       <c r="Q89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4171,34 +4390,35 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-2700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-700</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
       <c r="I91" s="3">
         <v>0</v>
       </c>
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>3</v>
+      <c r="K91" s="3">
+        <v>0</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>3</v>
@@ -4209,8 +4429,8 @@
       <c r="N91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
+      <c r="O91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P91" s="3">
         <v>0</v>
@@ -4218,8 +4438,11 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4265,8 +4488,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4312,34 +4538,37 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>43300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-141400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>66600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>13500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-9600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-137900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-137300</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
-      <c r="K94" s="3" t="s">
-        <v>3</v>
+      <c r="K94" s="3">
+        <v>0</v>
       </c>
       <c r="L94" s="3" t="s">
         <v>3</v>
@@ -4350,8 +4579,8 @@
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
+      <c r="O94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P94" s="3">
         <v>0</v>
@@ -4359,8 +4588,11 @@
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4378,8 +4610,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4425,8 +4658,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4472,8 +4708,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4519,8 +4758,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4566,35 +4808,38 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>12300</v>
+      </c>
+      <c r="E100" s="3">
         <v>166600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-300</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>-600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>155900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>191700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>13500</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4604,8 +4849,8 @@
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
+      <c r="O100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P100" s="3">
         <v>0</v>
@@ -4613,8 +4858,11 @@
       <c r="Q100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4660,35 +4908,38 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>18500</v>
+      </c>
+      <c r="E102" s="3">
         <v>-8400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>20200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-24000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-37600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-2600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>32400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-3400</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4698,13 +4949,16 @@
       <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O102" s="3">
-        <v>0</v>
+      <c r="O102" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P102" s="3">
         <v>0</v>
       </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ZNTL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ZNTL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="92">
   <si>
     <t>ZNTL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,60 +665,61 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
@@ -734,8 +735,11 @@
       <c r="R7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -784,8 +788,11 @@
       <c r="R8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -834,8 +841,11 @@
       <c r="R9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -884,8 +894,11 @@
       <c r="R10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -904,41 +917,42 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>46100</v>
+      </c>
+      <c r="E12" s="3">
         <v>38400</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>45200</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>44800</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>38400</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>29500</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>24700</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>17500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>13300</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>7100</v>
       </c>
-      <c r="M12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
@@ -954,8 +968,11 @@
       <c r="R12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1004,20 +1021,23 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>-42800</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1033,8 +1053,8 @@
       <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -1054,8 +1074,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1104,8 +1127,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1121,41 +1147,42 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>57900</v>
+      </c>
+      <c r="E17" s="3">
         <v>48200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>11300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>55100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>50300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>40200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>34800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>27400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>16400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>8700</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1171,8 +1198,11 @@
       <c r="R17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1180,32 +1210,32 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-48200</v>
+      </c>
+      <c r="F18" s="3">
         <v>-11300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-55100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-50300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-40200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-34800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-27400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-16400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-8700</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1221,8 +1251,11 @@
       <c r="R18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1241,8 +1274,9 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1259,23 +1293,23 @@
         <v>100</v>
       </c>
       <c r="H20" s="3">
+        <v>100</v>
+      </c>
+      <c r="I20" s="3">
         <v>300</v>
-      </c>
-      <c r="I20" s="3">
-        <v>100</v>
       </c>
       <c r="J20" s="3">
         <v>100</v>
       </c>
       <c r="K20" s="3">
+        <v>100</v>
+      </c>
+      <c r="L20" s="3">
         <v>200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>100</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1291,8 +1325,11 @@
       <c r="R20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1300,32 +1337,32 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-47900</v>
+      </c>
+      <c r="F21" s="3">
         <v>-11100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-54900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-50200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-39900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-34600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-27300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-16200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-8600</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1341,8 +1378,11 @@
       <c r="R21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1391,41 +1431,44 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-57500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-48100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-11200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-55000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-50200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-39900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-34600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-27300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-16200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-8700</v>
       </c>
-      <c r="M23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1441,40 +1484,43 @@
       <c r="R23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
         <v>200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-700</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
       <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
         <v>200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>400</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>3</v>
+      <c r="J24" s="3">
+        <v>0</v>
       </c>
       <c r="K24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
-      <c r="M24" s="3" t="s">
-        <v>3</v>
+      <c r="L24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0</v>
       </c>
       <c r="N24" s="3" t="s">
         <v>3</v>
@@ -1482,8 +1528,8 @@
       <c r="O24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P24" s="3">
-        <v>0</v>
+      <c r="P24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q24" s="3">
         <v>0</v>
@@ -1491,8 +1537,11 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1541,41 +1590,44 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-57500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-48300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-10500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-55100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-50400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-40400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-34700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-27300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-16200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-8700</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1591,41 +1643,44 @@
       <c r="R26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-59100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-50100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-4200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-54600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-49900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-40300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-34600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-26900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-16100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-8300</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1641,8 +1696,11 @@
       <c r="R27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1691,8 +1749,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1741,8 +1802,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1791,8 +1855,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1841,8 +1908,11 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1859,23 +1929,23 @@
         <v>-100</v>
       </c>
       <c r="H32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I32" s="3">
         <v>-300</v>
-      </c>
-      <c r="I32" s="3">
-        <v>-100</v>
       </c>
       <c r="J32" s="3">
         <v>-100</v>
       </c>
       <c r="K32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L32" s="3">
         <v>-200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-100</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1891,41 +1961,44 @@
       <c r="R32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-59100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-50100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-4200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-54600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-49900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-40300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-34600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-26900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-16100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-8300</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1941,8 +2014,11 @@
       <c r="R33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1991,41 +2067,44 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-59100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-50100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-4200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-54600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-49900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-40300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-34600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-26900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-16100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-8300</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
@@ -2041,46 +2120,49 @@
       <c r="R35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2096,8 +2178,11 @@
       <c r="R38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2116,8 +2201,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2136,38 +2222,39 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>30600</v>
+      </c>
+      <c r="E41" s="3">
         <v>59700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>40800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>49200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>29000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>55000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>92600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>96000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>63700</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2186,35 +2273,38 @@
       <c r="R41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>258800</v>
+      </c>
+      <c r="E42" s="3">
         <v>280200</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>326000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>201700</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>269400</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>283600</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>274900</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>137200</v>
       </c>
-      <c r="K42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2227,8 +2317,8 @@
       <c r="O42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P42" s="3">
-        <v>0</v>
+      <c r="P42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q42" s="3">
         <v>0</v>
@@ -2236,28 +2326,31 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3">
-        <v>0</v>
+      <c r="D43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E43" s="3">
+        <v>0</v>
+      </c>
+      <c r="F43" s="3">
         <v>100</v>
       </c>
-      <c r="F43" s="3">
-        <v>0</v>
-      </c>
       <c r="G43" s="3">
+        <v>0</v>
+      </c>
+      <c r="H43" s="3">
         <v>200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>400</v>
-      </c>
-      <c r="I43" s="3">
-        <v>100</v>
       </c>
       <c r="J43" s="3">
         <v>100</v>
@@ -2265,8 +2358,8 @@
       <c r="K43" s="3">
         <v>100</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>3</v>
+      <c r="L43" s="3">
+        <v>100</v>
       </c>
       <c r="M43" s="3" t="s">
         <v>3</v>
@@ -2277,8 +2370,8 @@
       <c r="O43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P43" s="3">
-        <v>0</v>
+      <c r="P43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q43" s="3">
         <v>0</v>
@@ -2286,8 +2379,11 @@
       <c r="R43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2336,38 +2432,41 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>11900</v>
+      </c>
+      <c r="E45" s="3">
         <v>10900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>10700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>8500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>7700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>6200</v>
-      </c>
-      <c r="I45" s="3">
-        <v>5200</v>
       </c>
       <c r="J45" s="3">
         <v>5200</v>
       </c>
       <c r="K45" s="3">
+        <v>5200</v>
+      </c>
+      <c r="L45" s="3">
         <v>2200</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2377,8 +2476,8 @@
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P45" s="3">
-        <v>0</v>
+      <c r="P45" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q45" s="3">
         <v>0</v>
@@ -2386,38 +2485,41 @@
       <c r="R45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>301300</v>
+      </c>
+      <c r="E46" s="3">
         <v>350800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>377600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>259400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>306400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>345100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>372700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>238500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>66000</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2427,8 +2529,8 @@
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P46" s="3">
-        <v>0</v>
+      <c r="P46" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q46" s="3">
         <v>0</v>
@@ -2436,20 +2538,23 @@
       <c r="R46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>35700</v>
+      </c>
+      <c r="E47" s="3">
         <v>37500</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>39300</v>
       </c>
-      <c r="F47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2465,8 +2570,8 @@
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L47" s="3">
-        <v>0</v>
+      <c r="L47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M47" s="3">
         <v>0</v>
@@ -2486,38 +2591,41 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>52100</v>
+      </c>
+      <c r="E48" s="3">
         <v>52800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>5400</v>
-      </c>
-      <c r="F48" s="3">
-        <v>3400</v>
       </c>
       <c r="G48" s="3">
         <v>3400</v>
       </c>
       <c r="H48" s="3">
+        <v>3400</v>
+      </c>
+      <c r="I48" s="3">
         <v>3600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2800</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2527,8 +2635,8 @@
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P48" s="3">
-        <v>0</v>
+      <c r="P48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q48" s="3">
         <v>0</v>
@@ -2536,8 +2644,11 @@
       <c r="R48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2548,7 +2659,7 @@
         <v>3700</v>
       </c>
       <c r="F49" s="3">
-        <v>12500</v>
+        <v>3700</v>
       </c>
       <c r="G49" s="3">
         <v>12500</v>
@@ -2565,8 +2676,8 @@
       <c r="K49" s="3">
         <v>12500</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>3</v>
+      <c r="L49" s="3">
+        <v>12500</v>
       </c>
       <c r="M49" s="3" t="s">
         <v>3</v>
@@ -2577,8 +2688,8 @@
       <c r="O49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P49" s="3">
-        <v>0</v>
+      <c r="P49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q49" s="3">
         <v>0</v>
@@ -2586,8 +2697,11 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2636,8 +2750,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2686,38 +2803,41 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>12800</v>
+      </c>
+      <c r="E52" s="3">
         <v>9700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>9100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>8500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>6100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>4300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>5600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>3600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>6300</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2727,8 +2847,8 @@
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P52" s="3">
-        <v>0</v>
+      <c r="P52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q52" s="3">
         <v>0</v>
@@ -2736,8 +2856,11 @@
       <c r="R52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2786,38 +2909,41 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>405700</v>
+      </c>
+      <c r="E54" s="3">
         <v>454500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>435100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>284000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>328400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>365600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>393200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>257200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>87600</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2836,8 +2962,11 @@
       <c r="R54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2856,8 +2985,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2876,38 +3006,39 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>13200</v>
+      </c>
+      <c r="E57" s="3">
         <v>11600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>8000</v>
-      </c>
-      <c r="F57" s="3">
-        <v>8300</v>
       </c>
       <c r="G57" s="3">
         <v>8300</v>
       </c>
       <c r="H57" s="3">
+        <v>8300</v>
+      </c>
+      <c r="I57" s="3">
         <v>8700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>5400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>4200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>7000</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2917,8 +3048,8 @@
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P57" s="3">
-        <v>0</v>
+      <c r="P57" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q57" s="3">
         <v>0</v>
@@ -2926,8 +3057,11 @@
       <c r="R57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2976,38 +3110,41 @@
       <c r="R58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>30300</v>
+      </c>
+      <c r="E59" s="3">
         <v>32400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>31400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>25300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>24500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>19900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>18500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>11400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>9900</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3017,8 +3154,8 @@
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P59" s="3">
-        <v>0</v>
+      <c r="P59" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q59" s="3">
         <v>0</v>
@@ -3026,38 +3163,41 @@
       <c r="R59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>43500</v>
+      </c>
+      <c r="E60" s="3">
         <v>43900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>39400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>33600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>32800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>28600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>23900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>15600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>16900</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3067,8 +3207,8 @@
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P60" s="3">
-        <v>0</v>
+      <c r="P60" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q60" s="3">
         <v>0</v>
@@ -3076,8 +3216,11 @@
       <c r="R60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3126,38 +3269,41 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>46500</v>
+      </c>
+      <c r="E62" s="3">
         <v>46100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>2900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>3600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>3500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>3700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>3900</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3167,8 +3313,8 @@
       <c r="O62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P62" s="3">
-        <v>0</v>
+      <c r="P62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q62" s="3">
         <v>0</v>
@@ -3176,8 +3322,11 @@
       <c r="R62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3226,8 +3375,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3276,8 +3428,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3326,38 +3481,41 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>90400</v>
+      </c>
+      <c r="E66" s="3">
         <v>90600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>41600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>60100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>60000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>57000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>52200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>44000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>27600</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3376,8 +3534,11 @@
       <c r="R66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3396,8 +3557,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3446,8 +3608,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3496,8 +3661,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3523,11 +3691,11 @@
         <v>0</v>
       </c>
       <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3">
         <v>155900</v>
       </c>
-      <c r="L70" s="3">
-        <v>0</v>
-      </c>
       <c r="M70" s="3">
         <v>0</v>
       </c>
@@ -3546,8 +3714,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3596,38 +3767,41 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-418600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-359600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-309500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-305300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-250700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-200800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-160500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-126000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-99100</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3646,8 +3820,11 @@
       <c r="R72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3696,8 +3873,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3746,8 +3926,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3796,38 +3979,41 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>315300</v>
+      </c>
+      <c r="E76" s="3">
         <v>364000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>393400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>223800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>268400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>308600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>341100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>213200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-95900</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3837,8 +4023,8 @@
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P76" s="3">
-        <v>0</v>
+      <c r="P76" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q76" s="3">
         <v>0</v>
@@ -3846,8 +4032,11 @@
       <c r="R76" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3896,46 +4085,49 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3951,41 +4143,44 @@
       <c r="R80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-59100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-50100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-4200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-54600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-49900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-40300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-34600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-26900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-16100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-8300</v>
       </c>
-      <c r="M81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N81" s="3" t="s">
         <v>3</v>
       </c>
@@ -4001,8 +4196,11 @@
       <c r="R81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4021,16 +4219,17 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>300</v>
+      </c>
+      <c r="E83" s="3">
         <v>200</v>
-      </c>
-      <c r="E83" s="3">
-        <v>100</v>
       </c>
       <c r="F83" s="3">
         <v>100</v>
@@ -4039,19 +4238,19 @@
         <v>100</v>
       </c>
       <c r="H83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I83" s="3">
+        <v>0</v>
+      </c>
+      <c r="J83" s="3">
         <v>100</v>
       </c>
-      <c r="J83" s="3">
-        <v>0</v>
-      </c>
       <c r="K83" s="3">
         <v>0</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>3</v>
+      <c r="L83" s="3">
+        <v>0</v>
       </c>
       <c r="M83" s="3" t="s">
         <v>3</v>
@@ -4062,8 +4261,8 @@
       <c r="O83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P83" s="3">
-        <v>0</v>
+      <c r="P83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q83" s="3">
         <v>0</v>
@@ -4071,8 +4270,11 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4121,8 +4323,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4171,8 +4376,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4221,8 +4429,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4271,8 +4482,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4321,38 +4535,41 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-50200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-37000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-33500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-46100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-37500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-27400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-20600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-22000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-16900</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
@@ -4362,8 +4579,8 @@
       <c r="O89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P89" s="3">
-        <v>0</v>
+      <c r="P89" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q89" s="3">
         <v>0</v>
@@ -4371,8 +4588,11 @@
       <c r="R89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4391,37 +4611,38 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-2200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-2700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-700</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
       <c r="J91" s="3">
         <v>0</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>3</v>
+      <c r="L91" s="3">
+        <v>0</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>3</v>
@@ -4432,8 +4653,8 @@
       <c r="O91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
+      <c r="P91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q91" s="3">
         <v>0</v>
@@ -4441,8 +4662,11 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4491,8 +4715,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4541,37 +4768,40 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>19800</v>
+      </c>
+      <c r="E94" s="3">
         <v>43300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-141400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>66600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>13500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-9600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-137900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-137300</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
-      <c r="L94" s="3" t="s">
-        <v>3</v>
+      <c r="L94" s="3">
+        <v>0</v>
       </c>
       <c r="M94" s="3" t="s">
         <v>3</v>
@@ -4582,8 +4812,8 @@
       <c r="O94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
+      <c r="P94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q94" s="3">
         <v>0</v>
@@ -4591,8 +4821,11 @@
       <c r="R94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4611,8 +4844,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4661,8 +4895,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4711,8 +4948,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4761,8 +5001,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4811,38 +5054,41 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E100" s="3">
         <v>12300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>166600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-300</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>-600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>155900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>191700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>13500</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4852,8 +5098,8 @@
       <c r="O100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
+      <c r="P100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q100" s="3">
         <v>0</v>
@@ -4861,8 +5107,11 @@
       <c r="R100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4911,38 +5160,41 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-29100</v>
+      </c>
+      <c r="E102" s="3">
         <v>18500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-8400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>20200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-24000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-37600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-2600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>32400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-3400</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4952,13 +5204,16 @@
       <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P102" s="3">
-        <v>0</v>
+      <c r="P102" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q102" s="3">
         <v>0</v>
       </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ZNTL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ZNTL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="92">
   <si>
     <t>ZNTL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,64 +665,65 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O7" s="2" t="s">
         <v>3</v>
       </c>
@@ -738,8 +739,11 @@
       <c r="S7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -791,8 +795,11 @@
       <c r="S8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -844,8 +851,11 @@
       <c r="S9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -897,8 +907,11 @@
       <c r="S10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -918,44 +931,45 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>43800</v>
+      </c>
+      <c r="E12" s="3">
         <v>46100</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>38400</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>45200</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>44800</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>38400</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>29500</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>24700</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>17500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>13300</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>7100</v>
       </c>
-      <c r="N12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O12" s="3" t="s">
         <v>3</v>
       </c>
@@ -971,8 +985,11 @@
       <c r="S12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1024,23 +1041,26 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
+      <c r="E14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>-42800</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1056,8 +1076,8 @@
       <c r="L14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
@@ -1077,8 +1097,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1130,8 +1153,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1148,44 +1174,45 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>63500</v>
+      </c>
+      <c r="E17" s="3">
         <v>57900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>48200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>11300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>55100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>50300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>40200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>34800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>27400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>16400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>8700</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1201,8 +1228,11 @@
       <c r="S17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1210,35 +1240,35 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-57900</v>
+      </c>
+      <c r="F18" s="3">
         <v>-48200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-11300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-55100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-50300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-40200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-34800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-27400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-16400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-8700</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1254,8 +1284,11 @@
       <c r="S18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1275,8 +1308,9 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1284,7 +1318,7 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="F20" s="3">
         <v>100</v>
@@ -1296,23 +1330,23 @@
         <v>100</v>
       </c>
       <c r="I20" s="3">
+        <v>100</v>
+      </c>
+      <c r="J20" s="3">
         <v>300</v>
-      </c>
-      <c r="J20" s="3">
-        <v>100</v>
       </c>
       <c r="K20" s="3">
         <v>100</v>
       </c>
       <c r="L20" s="3">
+        <v>100</v>
+      </c>
+      <c r="M20" s="3">
         <v>200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>100</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1328,8 +1362,11 @@
       <c r="S20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1337,35 +1374,35 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-57100</v>
+      </c>
+      <c r="F21" s="3">
         <v>-47900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-11100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-54900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-50200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-39900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-34600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-27300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-16200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-8600</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1381,8 +1418,11 @@
       <c r="S21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1434,44 +1474,47 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-63000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-57500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-48100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-11200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-55000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-50200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-39900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-34600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-27300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-16200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-8700</v>
       </c>
-      <c r="N23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1487,8 +1530,11 @@
       <c r="S23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1496,34 +1542,34 @@
         <v>0</v>
       </c>
       <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
         <v>200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-700</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
       <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
         <v>200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>400</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
-      <c r="K24" s="3" t="s">
-        <v>3</v>
+      <c r="K24" s="3">
+        <v>0</v>
       </c>
       <c r="L24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
-      <c r="N24" s="3" t="s">
-        <v>3</v>
+      <c r="M24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N24" s="3">
+        <v>0</v>
       </c>
       <c r="O24" s="3" t="s">
         <v>3</v>
@@ -1531,8 +1577,8 @@
       <c r="P24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q24" s="3">
-        <v>0</v>
+      <c r="Q24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R24" s="3">
         <v>0</v>
@@ -1540,8 +1586,11 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1593,44 +1642,47 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-63100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-57500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-48300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-10500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-55100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-50400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-40400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-34700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-27300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-16200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-8700</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1646,44 +1698,47 @@
       <c r="S26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-68400</v>
+      </c>
+      <c r="E27" s="3">
         <v>-59100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-50100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-4200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-54600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-49900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-40300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-34600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-26900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-16100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-8300</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1699,8 +1754,11 @@
       <c r="S27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1752,8 +1810,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1805,8 +1866,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1858,8 +1922,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1911,8 +1978,11 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1920,7 +1990,7 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="F32" s="3">
         <v>-100</v>
@@ -1932,23 +2002,23 @@
         <v>-100</v>
       </c>
       <c r="I32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J32" s="3">
         <v>-300</v>
-      </c>
-      <c r="J32" s="3">
-        <v>-100</v>
       </c>
       <c r="K32" s="3">
         <v>-100</v>
       </c>
       <c r="L32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M32" s="3">
         <v>-200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-100</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1964,44 +2034,47 @@
       <c r="S32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-68400</v>
+      </c>
+      <c r="E33" s="3">
         <v>-59100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-50100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-4200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-54600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-49900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-40300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-34600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-26900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-16100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-8300</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O33" s="3" t="s">
         <v>3</v>
       </c>
@@ -2017,8 +2090,11 @@
       <c r="S33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2070,44 +2146,47 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-68400</v>
+      </c>
+      <c r="E35" s="3">
         <v>-59100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-50100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-4200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-54600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-49900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-40300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-34600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-26900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-16100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-8300</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O35" s="3" t="s">
         <v>3</v>
       </c>
@@ -2123,49 +2202,52 @@
       <c r="S35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2181,8 +2263,11 @@
       <c r="S38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2202,8 +2287,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2223,41 +2309,42 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>55100</v>
+      </c>
+      <c r="E41" s="3">
         <v>30600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>59700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>40800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>49200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>29000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>55000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>92600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>96000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>63700</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2276,38 +2363,41 @@
       <c r="S41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>400100</v>
+      </c>
+      <c r="E42" s="3">
         <v>258800</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>280200</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>326000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>201700</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>269400</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>283600</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>274900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>137200</v>
       </c>
-      <c r="L42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2320,8 +2410,8 @@
       <c r="P42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q42" s="3">
-        <v>0</v>
+      <c r="Q42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R42" s="3">
         <v>0</v>
@@ -2329,31 +2419,34 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E43" s="3">
-        <v>0</v>
+      <c r="E43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F43" s="3">
+        <v>0</v>
+      </c>
+      <c r="G43" s="3">
         <v>100</v>
       </c>
-      <c r="G43" s="3">
-        <v>0</v>
-      </c>
       <c r="H43" s="3">
+        <v>0</v>
+      </c>
+      <c r="I43" s="3">
         <v>200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>400</v>
-      </c>
-      <c r="J43" s="3">
-        <v>100</v>
       </c>
       <c r="K43" s="3">
         <v>100</v>
@@ -2361,8 +2454,8 @@
       <c r="L43" s="3">
         <v>100</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>3</v>
+      <c r="M43" s="3">
+        <v>100</v>
       </c>
       <c r="N43" s="3" t="s">
         <v>3</v>
@@ -2373,8 +2466,8 @@
       <c r="P43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q43" s="3">
-        <v>0</v>
+      <c r="Q43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R43" s="3">
         <v>0</v>
@@ -2382,8 +2475,11 @@
       <c r="S43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2435,41 +2531,44 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>12400</v>
+      </c>
+      <c r="E45" s="3">
         <v>11900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>10900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>10700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>8500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>7700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>6200</v>
-      </c>
-      <c r="J45" s="3">
-        <v>5200</v>
       </c>
       <c r="K45" s="3">
         <v>5200</v>
       </c>
       <c r="L45" s="3">
+        <v>5200</v>
+      </c>
+      <c r="M45" s="3">
         <v>2200</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2479,8 +2578,8 @@
       <c r="P45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q45" s="3">
-        <v>0</v>
+      <c r="Q45" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R45" s="3">
         <v>0</v>
@@ -2488,41 +2587,44 @@
       <c r="S45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>467600</v>
+      </c>
+      <c r="E46" s="3">
         <v>301300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>350800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>377600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>259400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>306400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>345100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>372700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>238500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>66000</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2532,8 +2634,8 @@
       <c r="P46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q46" s="3">
-        <v>0</v>
+      <c r="Q46" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R46" s="3">
         <v>0</v>
@@ -2541,23 +2643,26 @@
       <c r="S46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>30400</v>
+      </c>
+      <c r="E47" s="3">
         <v>35700</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>37500</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>39300</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2573,8 +2678,8 @@
       <c r="L47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M47" s="3">
-        <v>0</v>
+      <c r="M47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N47" s="3">
         <v>0</v>
@@ -2594,41 +2699,44 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>51500</v>
+      </c>
+      <c r="E48" s="3">
         <v>52100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>52800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>5400</v>
-      </c>
-      <c r="G48" s="3">
-        <v>3400</v>
       </c>
       <c r="H48" s="3">
         <v>3400</v>
       </c>
       <c r="I48" s="3">
+        <v>3400</v>
+      </c>
+      <c r="J48" s="3">
         <v>3600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2800</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2638,8 +2746,8 @@
       <c r="P48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q48" s="3">
-        <v>0</v>
+      <c r="Q48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R48" s="3">
         <v>0</v>
@@ -2647,8 +2755,11 @@
       <c r="S48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2662,7 +2773,7 @@
         <v>3700</v>
       </c>
       <c r="G49" s="3">
-        <v>12500</v>
+        <v>3700</v>
       </c>
       <c r="H49" s="3">
         <v>12500</v>
@@ -2679,8 +2790,8 @@
       <c r="L49" s="3">
         <v>12500</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>3</v>
+      <c r="M49" s="3">
+        <v>12500</v>
       </c>
       <c r="N49" s="3" t="s">
         <v>3</v>
@@ -2691,8 +2802,8 @@
       <c r="P49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q49" s="3">
-        <v>0</v>
+      <c r="Q49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R49" s="3">
         <v>0</v>
@@ -2700,8 +2811,11 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2753,8 +2867,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2806,41 +2923,44 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>14600</v>
+      </c>
+      <c r="E52" s="3">
         <v>12800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>9700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>9100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>8500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>6100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>4300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>5600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>3600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>6300</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2850,8 +2970,8 @@
       <c r="P52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q52" s="3">
-        <v>0</v>
+      <c r="Q52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R52" s="3">
         <v>0</v>
@@ -2859,8 +2979,11 @@
       <c r="S52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2912,41 +3035,44 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>567900</v>
+      </c>
+      <c r="E54" s="3">
         <v>405700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>454500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>435100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>284000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>328400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>365600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>393200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>257200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>87600</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2965,8 +3091,11 @@
       <c r="S54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2986,8 +3115,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3007,41 +3137,42 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>12000</v>
+      </c>
+      <c r="E57" s="3">
         <v>13200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>11600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>8000</v>
-      </c>
-      <c r="G57" s="3">
-        <v>8300</v>
       </c>
       <c r="H57" s="3">
         <v>8300</v>
       </c>
       <c r="I57" s="3">
+        <v>8300</v>
+      </c>
+      <c r="J57" s="3">
         <v>8700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>5400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>4200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>7000</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3051,8 +3182,8 @@
       <c r="P57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q57" s="3">
-        <v>0</v>
+      <c r="Q57" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R57" s="3">
         <v>0</v>
@@ -3060,8 +3191,11 @@
       <c r="S57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3113,41 +3247,44 @@
       <c r="S58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>36600</v>
+      </c>
+      <c r="E59" s="3">
         <v>30300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>32400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>31400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>25300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>24500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>19900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>18500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>11400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>9900</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3157,8 +3294,8 @@
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q59" s="3">
-        <v>0</v>
+      <c r="Q59" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R59" s="3">
         <v>0</v>
@@ -3166,41 +3303,44 @@
       <c r="S59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>48600</v>
+      </c>
+      <c r="E60" s="3">
         <v>43500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>43900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>39400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>33600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>32800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>28600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>23900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>15600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>16900</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3210,8 +3350,8 @@
       <c r="P60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q60" s="3">
-        <v>0</v>
+      <c r="Q60" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R60" s="3">
         <v>0</v>
@@ -3219,8 +3359,11 @@
       <c r="S60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3272,41 +3415,44 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>46400</v>
+      </c>
+      <c r="E62" s="3">
         <v>46500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>46100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>2800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>2900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>3600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>3500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>3700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>3900</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3316,8 +3462,8 @@
       <c r="P62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q62" s="3">
-        <v>0</v>
+      <c r="Q62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R62" s="3">
         <v>0</v>
@@ -3325,8 +3471,11 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3378,8 +3527,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3431,8 +3583,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3484,41 +3639,44 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>95400</v>
+      </c>
+      <c r="E66" s="3">
         <v>90400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>90600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>41600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>60100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>60000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>57000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>52200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>44000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>27600</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3537,8 +3695,11 @@
       <c r="S66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3558,8 +3719,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3611,8 +3773,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3664,8 +3829,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3694,11 +3862,11 @@
         <v>0</v>
       </c>
       <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
         <v>155900</v>
       </c>
-      <c r="M70" s="3">
-        <v>0</v>
-      </c>
       <c r="N70" s="3">
         <v>0</v>
       </c>
@@ -3717,8 +3885,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3770,41 +3941,44 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-487000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-418600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-359600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-309500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-305300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-250700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-200800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-160500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-126000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-99100</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3823,8 +3997,11 @@
       <c r="S72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3876,8 +4053,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3929,8 +4109,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3982,41 +4165,44 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>472500</v>
+      </c>
+      <c r="E76" s="3">
         <v>315300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>364000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>393400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>223800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>268400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>308600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>341100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>213200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-95900</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4026,8 +4212,8 @@
       <c r="P76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q76" s="3">
-        <v>0</v>
+      <c r="Q76" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R76" s="3">
         <v>0</v>
@@ -4035,8 +4221,11 @@
       <c r="S76" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4088,49 +4277,52 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O80" s="2" t="s">
         <v>3</v>
       </c>
@@ -4146,44 +4338,47 @@
       <c r="S80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-68400</v>
+      </c>
+      <c r="E81" s="3">
         <v>-59100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-50100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-4200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-54600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-49900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-40300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-34600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-26900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-16100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-8300</v>
       </c>
-      <c r="N81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O81" s="3" t="s">
         <v>3</v>
       </c>
@@ -4199,8 +4394,11 @@
       <c r="S81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4220,8 +4418,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4229,10 +4428,10 @@
         <v>300</v>
       </c>
       <c r="E83" s="3">
+        <v>300</v>
+      </c>
+      <c r="F83" s="3">
         <v>200</v>
-      </c>
-      <c r="F83" s="3">
-        <v>100</v>
       </c>
       <c r="G83" s="3">
         <v>100</v>
@@ -4241,19 +4440,19 @@
         <v>100</v>
       </c>
       <c r="I83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J83" s="3">
+        <v>0</v>
+      </c>
+      <c r="K83" s="3">
         <v>100</v>
       </c>
-      <c r="K83" s="3">
-        <v>0</v>
-      </c>
       <c r="L83" s="3">
         <v>0</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>3</v>
+      <c r="M83" s="3">
+        <v>0</v>
       </c>
       <c r="N83" s="3" t="s">
         <v>3</v>
@@ -4264,8 +4463,8 @@
       <c r="P83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q83" s="3">
-        <v>0</v>
+      <c r="Q83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R83" s="3">
         <v>0</v>
@@ -4273,8 +4472,11 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4326,8 +4528,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4379,8 +4584,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4432,8 +4640,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4485,8 +4696,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4538,41 +4752,44 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-43000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-50200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-37000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-33500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-46100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-37500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-27400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-20600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-22000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-16900</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
@@ -4582,8 +4799,8 @@
       <c r="P89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q89" s="3">
-        <v>0</v>
+      <c r="Q89" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R89" s="3">
         <v>0</v>
@@ -4591,8 +4808,11 @@
       <c r="S89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4612,40 +4832,41 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-2200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-2700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-700</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
       <c r="K91" s="3">
         <v>0</v>
       </c>
       <c r="L91" s="3">
         <v>0</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>3</v>
+      <c r="M91" s="3">
+        <v>0</v>
       </c>
       <c r="N91" s="3" t="s">
         <v>3</v>
@@ -4656,8 +4877,8 @@
       <c r="P91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
+      <c r="Q91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R91" s="3">
         <v>0</v>
@@ -4665,8 +4886,11 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4718,8 +4942,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4771,40 +4998,43 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-142100</v>
+      </c>
+      <c r="E94" s="3">
         <v>19800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>43300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-141400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>66600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>13500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-9600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-137900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-137300</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
-      <c r="M94" s="3" t="s">
-        <v>3</v>
+      <c r="M94" s="3">
+        <v>0</v>
       </c>
       <c r="N94" s="3" t="s">
         <v>3</v>
@@ -4815,8 +5045,8 @@
       <c r="P94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
+      <c r="Q94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R94" s="3">
         <v>0</v>
@@ -4824,8 +5054,11 @@
       <c r="S94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4845,8 +5078,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4898,8 +5132,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4951,8 +5188,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5004,8 +5244,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5057,41 +5300,44 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>209500</v>
+      </c>
+      <c r="E100" s="3">
         <v>1300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>12300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>166600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-300</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>-600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>155900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>191700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>13500</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
@@ -5101,8 +5347,8 @@
       <c r="P100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
+      <c r="Q100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R100" s="3">
         <v>0</v>
@@ -5110,8 +5356,11 @@
       <c r="S100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5163,41 +5412,44 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>24300</v>
+      </c>
+      <c r="E102" s="3">
         <v>-29100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>18500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-8400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>20200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-24000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-37600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-2600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>32400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-3400</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
@@ -5207,13 +5459,16 @@
       <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q102" s="3">
-        <v>0</v>
+      <c r="Q102" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R102" s="3">
         <v>0</v>
       </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ZNTL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ZNTL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="92">
   <si>
     <t>ZNTL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,71 +665,72 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="22" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="P7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q7" s="2" t="s">
         <v>3</v>
       </c>
@@ -742,8 +743,14 @@
       <c r="T7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="V7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -798,8 +805,14 @@
       <c r="T8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -854,8 +867,14 @@
       <c r="T9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -910,8 +929,14 @@
       <c r="T10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -932,50 +957,52 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>40600</v>
+      </c>
+      <c r="E12" s="3">
+        <v>42200</v>
+      </c>
+      <c r="F12" s="3">
         <v>43800</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>46100</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>38400</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>45200</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>44800</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>38400</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>29500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>24700</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>17500</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>13300</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>7100</v>
       </c>
-      <c r="O12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q12" s="3" t="s">
         <v>3</v>
       </c>
@@ -988,8 +1015,14 @@
       <c r="T12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1044,29 +1077,35 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>-42800</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1079,11 +1118,11 @@
       <c r="M14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
@@ -1100,8 +1139,14 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1156,8 +1201,14 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1175,50 +1226,52 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>51800</v>
+      </c>
+      <c r="E17" s="3">
+        <v>54200</v>
+      </c>
+      <c r="F17" s="3">
         <v>63500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>57900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>48200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>11300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>55100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>50300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>40200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>34800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>27400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>16400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>8700</v>
       </c>
-      <c r="O17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1231,8 +1284,14 @@
       <c r="T17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1240,41 +1299,41 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-54200</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-63500</v>
+      </c>
+      <c r="G18" s="3">
         <v>-57900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-48200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-11300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-55100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-50300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-40200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-34800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-27400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-16400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-8700</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1287,8 +1346,14 @@
       <c r="T18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1309,8 +1374,10 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1318,13 +1385,13 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F20" s="3">
         <v>400</v>
       </c>
-      <c r="F20" s="3">
-        <v>100</v>
-      </c>
       <c r="G20" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="H20" s="3">
         <v>100</v>
@@ -1333,25 +1400,25 @@
         <v>100</v>
       </c>
       <c r="J20" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="K20" s="3">
         <v>100</v>
       </c>
       <c r="L20" s="3">
+        <v>300</v>
+      </c>
+      <c r="M20" s="3">
         <v>100</v>
-      </c>
-      <c r="M20" s="3">
-        <v>200</v>
       </c>
       <c r="N20" s="3">
         <v>100</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P20" s="3" t="s">
-        <v>3</v>
+      <c r="O20" s="3">
+        <v>200</v>
+      </c>
+      <c r="P20" s="3">
+        <v>100</v>
       </c>
       <c r="Q20" s="3" t="s">
         <v>3</v>
@@ -1365,8 +1432,14 @@
       <c r="T20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1374,41 +1447,41 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-51900</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-62700</v>
+      </c>
+      <c r="G21" s="3">
         <v>-57100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-47900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-11100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-54900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-50200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-39900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-34600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-27300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-16200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-8600</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1421,8 +1494,14 @@
       <c r="T21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1477,50 +1556,56 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-48500</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-52300</v>
+      </c>
+      <c r="F23" s="3">
         <v>-63000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-57500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-48100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-11200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-55000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-50200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-39900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-34600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-27300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-16200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-8700</v>
       </c>
-      <c r="O23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1533,64 +1618,76 @@
       <c r="T23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="E24" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
         <v>200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>-700</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
         <v>200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>400</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
-      <c r="L24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N24" s="3">
-        <v>0</v>
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P24" s="3" t="s">
-        <v>3</v>
+      <c r="P24" s="3">
+        <v>0</v>
       </c>
       <c r="Q24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R24" s="3">
-        <v>0</v>
-      </c>
-      <c r="S24" s="3">
-        <v>0</v>
+      <c r="R24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1645,50 +1742,56 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-48200</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-52100</v>
+      </c>
+      <c r="F26" s="3">
         <v>-63100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-57500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-48300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-10500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-55100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-50400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-40400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-34700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-27300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-16200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-8700</v>
       </c>
-      <c r="O26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1701,50 +1804,56 @@
       <c r="T26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-55000</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-54400</v>
+      </c>
+      <c r="F27" s="3">
         <v>-68400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-59100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-50100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-4200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-54600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-49900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-40300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-34600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-26900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-16100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-8300</v>
       </c>
-      <c r="O27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1757,8 +1866,14 @@
       <c r="T27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1813,8 +1928,14 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1869,8 +1990,14 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1925,8 +2052,14 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1981,8 +2114,14 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1990,13 +2129,13 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="F32" s="3">
         <v>-400</v>
       </c>
-      <c r="F32" s="3">
-        <v>-100</v>
-      </c>
       <c r="G32" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="H32" s="3">
         <v>-100</v>
@@ -2005,25 +2144,25 @@
         <v>-100</v>
       </c>
       <c r="J32" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="K32" s="3">
         <v>-100</v>
       </c>
       <c r="L32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M32" s="3">
         <v>-100</v>
-      </c>
-      <c r="M32" s="3">
-        <v>-200</v>
       </c>
       <c r="N32" s="3">
         <v>-100</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P32" s="3" t="s">
-        <v>3</v>
+      <c r="O32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P32" s="3">
+        <v>-100</v>
       </c>
       <c r="Q32" s="3" t="s">
         <v>3</v>
@@ -2037,50 +2176,56 @@
       <c r="T32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-55000</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-54400</v>
+      </c>
+      <c r="F33" s="3">
         <v>-68400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-59100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-50100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-4200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-54600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-49900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-40300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-34600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-26900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-16100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-8300</v>
       </c>
-      <c r="O33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q33" s="3" t="s">
         <v>3</v>
       </c>
@@ -2093,8 +2238,14 @@
       <c r="T33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2149,50 +2300,56 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-55000</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-54400</v>
+      </c>
+      <c r="F35" s="3">
         <v>-68400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-59100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-50100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-4200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-54600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-49900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-40300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-34600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-26900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-16100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-8300</v>
       </c>
-      <c r="O35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q35" s="3" t="s">
         <v>3</v>
       </c>
@@ -2205,55 +2362,61 @@
       <c r="T35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="P38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2266,8 +2429,14 @@
       <c r="T38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="V38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2288,8 +2457,10 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2310,47 +2481,49 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>43100</v>
+      </c>
+      <c r="E41" s="3">
+        <v>42600</v>
+      </c>
+      <c r="F41" s="3">
         <v>55100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>30600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>59700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>40800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>49200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>29000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>55000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>92600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>96000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>63700</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2366,44 +2539,50 @@
       <c r="T41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>394300</v>
+      </c>
+      <c r="E42" s="3">
+        <v>379200</v>
+      </c>
+      <c r="F42" s="3">
         <v>400100</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>258800</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>280200</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>326000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>201700</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>269400</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>283600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>274900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>137200</v>
       </c>
-      <c r="M42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2413,17 +2592,23 @@
       <c r="Q42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R42" s="3">
-        <v>0</v>
-      </c>
-      <c r="S42" s="3">
-        <v>0</v>
+      <c r="R42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2433,35 +2618,35 @@
       <c r="E43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F43" s="3">
-        <v>0</v>
-      </c>
-      <c r="G43" s="3">
+      <c r="F43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H43" s="3">
+        <v>0</v>
+      </c>
+      <c r="I43" s="3">
         <v>100</v>
       </c>
-      <c r="H43" s="3">
-        <v>0</v>
-      </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
+        <v>0</v>
+      </c>
+      <c r="K43" s="3">
         <v>200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>400</v>
-      </c>
-      <c r="K43" s="3">
-        <v>100</v>
-      </c>
-      <c r="L43" s="3">
-        <v>100</v>
       </c>
       <c r="M43" s="3">
         <v>100</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O43" s="3" t="s">
-        <v>3</v>
+      <c r="N43" s="3">
+        <v>100</v>
+      </c>
+      <c r="O43" s="3">
+        <v>100</v>
       </c>
       <c r="P43" s="3" t="s">
         <v>3</v>
@@ -2469,17 +2654,23 @@
       <c r="Q43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R43" s="3">
-        <v>0</v>
-      </c>
-      <c r="S43" s="3">
-        <v>0</v>
+      <c r="R43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2534,141 +2725,159 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>14600</v>
+      </c>
+      <c r="E45" s="3">
+        <v>12200</v>
+      </c>
+      <c r="F45" s="3">
         <v>12400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>11900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>10900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>10700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>8500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>7700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>6200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>5200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>5200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>2200</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P45" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R45" s="3">
-        <v>0</v>
-      </c>
-      <c r="S45" s="3">
-        <v>0</v>
+      <c r="R45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S45" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>451900</v>
+      </c>
+      <c r="E46" s="3">
+        <v>433900</v>
+      </c>
+      <c r="F46" s="3">
         <v>467600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>301300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>350800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>377600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>259400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>306400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>345100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>372700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>238500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>66000</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P46" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R46" s="3">
-        <v>0</v>
-      </c>
-      <c r="S46" s="3">
-        <v>0</v>
+      <c r="R46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S46" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3">
+        <v>0</v>
+      </c>
+      <c r="V46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>21200</v>
+      </c>
+      <c r="E47" s="3">
+        <v>28000</v>
+      </c>
+      <c r="F47" s="3">
         <v>30400</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>35700</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>37500</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>39300</v>
       </c>
-      <c r="H47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2681,11 +2890,11 @@
       <c r="M47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N47" s="3">
-        <v>0</v>
-      </c>
-      <c r="O47" s="3">
-        <v>0</v>
+      <c r="N47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P47" s="3">
         <v>0</v>
@@ -2702,64 +2911,76 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>50100</v>
+      </c>
+      <c r="E48" s="3">
+        <v>50700</v>
+      </c>
+      <c r="F48" s="3">
         <v>51500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>52100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>52800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>5400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>3400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>3400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>3600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>2400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>2600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>2800</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P48" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R48" s="3">
-        <v>0</v>
-      </c>
-      <c r="S48" s="3">
-        <v>0</v>
+      <c r="R48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3">
+        <v>0</v>
+      </c>
+      <c r="V48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2776,10 +2997,10 @@
         <v>3700</v>
       </c>
       <c r="H49" s="3">
-        <v>12500</v>
+        <v>3700</v>
       </c>
       <c r="I49" s="3">
-        <v>12500</v>
+        <v>3700</v>
       </c>
       <c r="J49" s="3">
         <v>12500</v>
@@ -2793,11 +3014,11 @@
       <c r="M49" s="3">
         <v>12500</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O49" s="3" t="s">
-        <v>3</v>
+      <c r="N49" s="3">
+        <v>12500</v>
+      </c>
+      <c r="O49" s="3">
+        <v>12500</v>
       </c>
       <c r="P49" s="3" t="s">
         <v>3</v>
@@ -2805,17 +3026,23 @@
       <c r="Q49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R49" s="3">
-        <v>0</v>
-      </c>
-      <c r="S49" s="3">
-        <v>0</v>
+      <c r="R49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2870,8 +3097,14 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2926,64 +3159,76 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>12400</v>
+      </c>
+      <c r="E52" s="3">
+        <v>12900</v>
+      </c>
+      <c r="F52" s="3">
         <v>14600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>12800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>9700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>9100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>8500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>6100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>4300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>5600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>3600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>6300</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P52" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R52" s="3">
-        <v>0</v>
-      </c>
-      <c r="S52" s="3">
-        <v>0</v>
+      <c r="R52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3038,47 +3283,53 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>539300</v>
+      </c>
+      <c r="E54" s="3">
+        <v>529200</v>
+      </c>
+      <c r="F54" s="3">
         <v>567900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>405700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>454500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>435100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>284000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>328400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>365600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>393200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>257200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>87600</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3094,8 +3345,14 @@
       <c r="T54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3116,8 +3373,10 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3138,64 +3397,72 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>11200</v>
+      </c>
+      <c r="E57" s="3">
+        <v>9800</v>
+      </c>
+      <c r="F57" s="3">
         <v>12000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>13200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>11600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>8000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>8300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>8300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>8700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>5400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>4200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>7000</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P57" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R57" s="3">
-        <v>0</v>
-      </c>
-      <c r="S57" s="3">
-        <v>0</v>
+      <c r="R57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S57" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3">
+        <v>0</v>
+      </c>
+      <c r="V57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3250,120 +3517,138 @@
       <c r="T58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>45400</v>
+      </c>
+      <c r="E59" s="3">
+        <v>44200</v>
+      </c>
+      <c r="F59" s="3">
         <v>36600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>30300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>32400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>31400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>25300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>24500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>19900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>18500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>11400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>9900</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R59" s="3">
-        <v>0</v>
-      </c>
-      <c r="S59" s="3">
-        <v>0</v>
+      <c r="R59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S59" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3">
+        <v>0</v>
+      </c>
+      <c r="V59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>56600</v>
+      </c>
+      <c r="E60" s="3">
+        <v>54100</v>
+      </c>
+      <c r="F60" s="3">
         <v>48600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>43500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>43900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>39400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>33600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>32800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>28600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>23900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>15600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>16900</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P60" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R60" s="3">
-        <v>0</v>
-      </c>
-      <c r="S60" s="3">
-        <v>0</v>
+      <c r="R60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S60" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3">
+        <v>0</v>
+      </c>
+      <c r="V60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3418,64 +3703,76 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>48600</v>
+      </c>
+      <c r="E62" s="3">
         <v>46400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
+        <v>46400</v>
+      </c>
+      <c r="G62" s="3">
         <v>46500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>46100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>1700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>2800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>2900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>3600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>3500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>3700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>3900</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P62" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R62" s="3">
-        <v>0</v>
-      </c>
-      <c r="S62" s="3">
-        <v>0</v>
+      <c r="R62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3530,8 +3827,14 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3586,8 +3889,14 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3642,47 +3951,53 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>105500</v>
+      </c>
+      <c r="E66" s="3">
+        <v>100700</v>
+      </c>
+      <c r="F66" s="3">
         <v>95400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>90400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>90600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>41600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>60100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>60000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>57000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>52200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>44000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>27600</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3698,8 +4013,14 @@
       <c r="T66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3720,8 +4041,10 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3776,8 +4099,14 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3832,8 +4161,14 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3865,14 +4200,14 @@
         <v>0</v>
       </c>
       <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3">
         <v>155900</v>
       </c>
-      <c r="N70" s="3">
-        <v>0</v>
-      </c>
-      <c r="O70" s="3">
-        <v>0</v>
-      </c>
       <c r="P70" s="3">
         <v>0</v>
       </c>
@@ -3888,8 +4223,14 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3944,47 +4285,53 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-596400</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-541400</v>
+      </c>
+      <c r="F72" s="3">
         <v>-487000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-418600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-359600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-309500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-305300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-250700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-200800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-160500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-126000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-99100</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4000,8 +4347,14 @@
       <c r="T72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4056,8 +4409,14 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4112,8 +4471,14 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4168,64 +4533,76 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>433800</v>
+      </c>
+      <c r="E76" s="3">
+        <v>428500</v>
+      </c>
+      <c r="F76" s="3">
         <v>472500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>315300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>364000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>393400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>223800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>268400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>308600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>341100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>213200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-95900</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P76" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R76" s="3">
-        <v>0</v>
-      </c>
-      <c r="S76" s="3">
-        <v>0</v>
+      <c r="R76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S76" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T76" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U76" s="3">
+        <v>0</v>
+      </c>
+      <c r="V76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4280,55 +4657,61 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="P80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q80" s="2" t="s">
         <v>3</v>
       </c>
@@ -4341,50 +4724,56 @@
       <c r="T80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="V80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-55000</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-54400</v>
+      </c>
+      <c r="F81" s="3">
         <v>-68400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-59100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-50100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-4200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-54600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-49900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-40300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-34600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-26900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-16100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-8300</v>
       </c>
-      <c r="O81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q81" s="3" t="s">
         <v>3</v>
       </c>
@@ -4397,8 +4786,14 @@
       <c r="T81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4419,31 +4814,33 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>400</v>
+      </c>
+      <c r="E83" s="3">
+        <v>400</v>
+      </c>
+      <c r="F83" s="3">
         <v>300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>200</v>
-      </c>
-      <c r="G83" s="3">
-        <v>100</v>
-      </c>
-      <c r="H83" s="3">
-        <v>100</v>
       </c>
       <c r="I83" s="3">
         <v>100</v>
       </c>
       <c r="J83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K83" s="3">
         <v>100</v>
@@ -4452,13 +4849,13 @@
         <v>0</v>
       </c>
       <c r="M83" s="3">
-        <v>0</v>
-      </c>
-      <c r="N83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O83" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+      <c r="O83" s="3">
+        <v>0</v>
       </c>
       <c r="P83" s="3" t="s">
         <v>3</v>
@@ -4466,17 +4863,23 @@
       <c r="Q83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R83" s="3">
-        <v>0</v>
-      </c>
-      <c r="S83" s="3">
-        <v>0</v>
+      <c r="R83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4531,8 +4934,14 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4587,8 +4996,14 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4643,8 +5058,14 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4699,8 +5120,14 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4755,64 +5182,76 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-37300</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-33200</v>
+      </c>
+      <c r="F89" s="3">
         <v>-43000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-50200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-37000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-33500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-46100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-37500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-27400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-20600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-22000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-16900</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R89" s="3">
-        <v>0</v>
-      </c>
-      <c r="S89" s="3">
-        <v>0</v>
+      <c r="R89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S89" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3">
+        <v>0</v>
+      </c>
+      <c r="V89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4833,46 +5272,48 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="F91" s="3">
         <v>-300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-2200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-2700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-700</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
       <c r="M91" s="3">
         <v>0</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O91" s="3" t="s">
-        <v>3</v>
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
+        <v>0</v>
       </c>
       <c r="P91" s="3" t="s">
         <v>3</v>
@@ -4880,17 +5321,23 @@
       <c r="Q91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
-      </c>
-      <c r="S91" s="3">
-        <v>0</v>
+      <c r="R91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4945,8 +5392,14 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5001,46 +5454,52 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-11900</v>
+      </c>
+      <c r="E94" s="3">
+        <v>20000</v>
+      </c>
+      <c r="F94" s="3">
         <v>-142100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>19800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>43300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-141400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>66600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>13500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-9600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-137900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-137300</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
-      <c r="N94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O94" s="3" t="s">
-        <v>3</v>
+      <c r="O94" s="3">
+        <v>0</v>
       </c>
       <c r="P94" s="3" t="s">
         <v>3</v>
@@ -5048,17 +5507,23 @@
       <c r="Q94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
-      </c>
-      <c r="S94" s="3">
-        <v>0</v>
+      <c r="R94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5079,8 +5544,10 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5135,8 +5602,14 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5191,8 +5664,14 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5247,8 +5726,14 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5303,64 +5788,76 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>49700</v>
+      </c>
+      <c r="E100" s="3">
+        <v>600</v>
+      </c>
+      <c r="F100" s="3">
         <v>209500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>1300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>12300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>166600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-300</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>-600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>155900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>191700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>13500</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
-      <c r="S100" s="3">
-        <v>0</v>
+      <c r="R100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5415,60 +5912,72 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>500</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-12600</v>
+      </c>
+      <c r="F102" s="3">
         <v>24300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-29100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>18500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-8400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>20200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-24000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-37600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-2600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>32400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-3400</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R102" s="3">
-        <v>0</v>
-      </c>
-      <c r="S102" s="3">
-        <v>0</v>
+      <c r="R102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S102" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ZNTL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ZNTL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="92">
   <si>
     <t>ZNTL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,78 +665,80 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="22" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="24" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="R7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="S7" s="2" t="s">
         <v>3</v>
       </c>
@@ -749,8 +751,14 @@
       <c r="V7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="X7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -811,8 +819,14 @@
       <c r="V8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8" s="3">
+        <v>0</v>
+      </c>
+      <c r="X8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -873,8 +887,14 @@
       <c r="V9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -935,8 +955,14 @@
       <c r="V10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -959,56 +985,58 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>88300</v>
+      </c>
+      <c r="E12" s="3">
+        <v>48600</v>
+      </c>
+      <c r="F12" s="3">
         <v>40600</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>42200</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>43800</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>46100</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>38400</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>45200</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>44800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>38400</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>29500</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>24700</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>17500</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>13300</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>7100</v>
       </c>
-      <c r="Q12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S12" s="3" t="s">
         <v>3</v>
       </c>
@@ -1021,8 +1049,14 @@
       <c r="V12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1083,8 +1117,14 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1092,26 +1132,26 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
+        <v>5000</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>-42800</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1124,11 +1164,11 @@
       <c r="O14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>0</v>
+      <c r="P14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R14" s="3">
         <v>0</v>
@@ -1145,8 +1185,14 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1207,8 +1253,14 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1228,56 +1280,58 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>103900</v>
+      </c>
+      <c r="E17" s="3">
+        <v>65000</v>
+      </c>
+      <c r="F17" s="3">
         <v>51800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>54200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>63500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>57900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>48200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>11300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>55100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>50300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>40200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>34800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>27400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>16400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>8700</v>
       </c>
-      <c r="Q17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1290,8 +1344,14 @@
       <c r="V17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1299,47 +1359,47 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-65000</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-51800</v>
+      </c>
+      <c r="G18" s="3">
         <v>-54200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-63500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-57900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-48200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-11300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-55100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-50300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-40200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-34800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-27400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-16400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-8700</v>
       </c>
-      <c r="Q18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1352,8 +1412,14 @@
       <c r="V18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1376,8 +1442,10 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1385,19 +1453,19 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>4100</v>
+      </c>
+      <c r="F20" s="3">
+        <v>3200</v>
+      </c>
+      <c r="G20" s="3">
         <v>1900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>400</v>
-      </c>
-      <c r="H20" s="3">
-        <v>100</v>
-      </c>
-      <c r="I20" s="3">
-        <v>100</v>
       </c>
       <c r="J20" s="3">
         <v>100</v>
@@ -1406,25 +1474,25 @@
         <v>100</v>
       </c>
       <c r="L20" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="M20" s="3">
         <v>100</v>
       </c>
       <c r="N20" s="3">
+        <v>300</v>
+      </c>
+      <c r="O20" s="3">
         <v>100</v>
-      </c>
-      <c r="O20" s="3">
-        <v>200</v>
       </c>
       <c r="P20" s="3">
         <v>100</v>
       </c>
-      <c r="Q20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R20" s="3" t="s">
-        <v>3</v>
+      <c r="Q20" s="3">
+        <v>200</v>
+      </c>
+      <c r="R20" s="3">
+        <v>100</v>
       </c>
       <c r="S20" s="3" t="s">
         <v>3</v>
@@ -1438,8 +1506,14 @@
       <c r="V20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1447,47 +1521,47 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-60500</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-48200</v>
+      </c>
+      <c r="G21" s="3">
         <v>-51900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-62700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-57100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-47900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-11100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-54900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-50200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-39900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-34600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-27300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-16200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-8600</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1500,8 +1574,14 @@
       <c r="V21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1562,56 +1642,62 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-99500</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-60800</v>
+      </c>
+      <c r="F23" s="3">
         <v>-48500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-52300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-63000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-57500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-48100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-11200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-55000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-50200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-39900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-34600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-27300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-16200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-8700</v>
       </c>
-      <c r="Q23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1624,70 +1710,82 @@
       <c r="V23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E24" s="3">
+        <v>100</v>
+      </c>
+      <c r="F24" s="3">
         <v>-400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>-200</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
       <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
         <v>200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>-700</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
         <v>200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>400</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
-      <c r="N24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P24" s="3">
-        <v>0</v>
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R24" s="3" t="s">
-        <v>3</v>
+      <c r="R24" s="3">
+        <v>0</v>
       </c>
       <c r="S24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T24" s="3">
-        <v>0</v>
-      </c>
-      <c r="U24" s="3">
-        <v>0</v>
+      <c r="T24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="V24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1748,56 +1846,62 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-98900</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-61000</v>
+      </c>
+      <c r="F26" s="3">
         <v>-48200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-52100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-63100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-57500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-48300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-10500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-55100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-50400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-40400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-34700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-27300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-16200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-8700</v>
       </c>
-      <c r="Q26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1810,56 +1914,62 @@
       <c r="V26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-112500</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-63200</v>
+      </c>
+      <c r="F27" s="3">
         <v>-55000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-54400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-68400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-59100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-50100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-4200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-54600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-49900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-40300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-34600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-26900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-16100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-8300</v>
       </c>
-      <c r="Q27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1872,8 +1982,14 @@
       <c r="V27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1934,8 +2050,14 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1996,8 +2118,14 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2058,8 +2186,14 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2120,8 +2254,14 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2129,19 +2269,19 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="G32" s="3">
         <v>-1900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-400</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-100</v>
-      </c>
-      <c r="I32" s="3">
-        <v>-100</v>
       </c>
       <c r="J32" s="3">
         <v>-100</v>
@@ -2150,25 +2290,25 @@
         <v>-100</v>
       </c>
       <c r="L32" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="M32" s="3">
         <v>-100</v>
       </c>
       <c r="N32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O32" s="3">
         <v>-100</v>
-      </c>
-      <c r="O32" s="3">
-        <v>-200</v>
       </c>
       <c r="P32" s="3">
         <v>-100</v>
       </c>
-      <c r="Q32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R32" s="3" t="s">
-        <v>3</v>
+      <c r="Q32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R32" s="3">
+        <v>-100</v>
       </c>
       <c r="S32" s="3" t="s">
         <v>3</v>
@@ -2182,56 +2322,62 @@
       <c r="V32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-112500</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-63200</v>
+      </c>
+      <c r="F33" s="3">
         <v>-55000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-54400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-68400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-59100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-50100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-4200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-54600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-49900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-40300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-34600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-26900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-16100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-8300</v>
       </c>
-      <c r="Q33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S33" s="3" t="s">
         <v>3</v>
       </c>
@@ -2244,8 +2390,14 @@
       <c r="V33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2306,56 +2458,62 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-112500</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-63200</v>
+      </c>
+      <c r="F35" s="3">
         <v>-55000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-54400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-68400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-59100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-50100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-4200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-54600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-49900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-40300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-34600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-26900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-16100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-8300</v>
       </c>
-      <c r="Q35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S35" s="3" t="s">
         <v>3</v>
       </c>
@@ -2368,61 +2526,67 @@
       <c r="V35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="R38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="S38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2435,8 +2599,14 @@
       <c r="V38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="X38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2459,8 +2629,10 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2483,53 +2655,55 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>266600</v>
+      </c>
+      <c r="E41" s="3">
+        <v>36300</v>
+      </c>
+      <c r="F41" s="3">
         <v>43100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>42600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>55100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>30600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>59700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>40800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>49200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>29000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>55000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>92600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>96000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>63700</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2545,50 +2719,56 @@
       <c r="V41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>286400</v>
+      </c>
+      <c r="E42" s="3">
+        <v>356200</v>
+      </c>
+      <c r="F42" s="3">
         <v>394300</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>379200</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>400100</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>258800</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>280200</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>326000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>201700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>269400</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>283600</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>274900</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>137200</v>
       </c>
-      <c r="O42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2598,25 +2778,31 @@
       <c r="S42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T42" s="3">
-        <v>0</v>
-      </c>
-      <c r="U42" s="3">
-        <v>0</v>
+      <c r="T42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>3</v>
+      <c r="D43" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E43" s="3">
+        <v>8300</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>3</v>
@@ -2624,35 +2810,35 @@
       <c r="G43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H43" s="3">
-        <v>0</v>
-      </c>
-      <c r="I43" s="3">
+      <c r="H43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J43" s="3">
+        <v>0</v>
+      </c>
+      <c r="K43" s="3">
         <v>100</v>
       </c>
-      <c r="J43" s="3">
-        <v>0</v>
-      </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3">
         <v>200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>400</v>
-      </c>
-      <c r="M43" s="3">
-        <v>100</v>
-      </c>
-      <c r="N43" s="3">
-        <v>100</v>
       </c>
       <c r="O43" s="3">
         <v>100</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q43" s="3" t="s">
-        <v>3</v>
+      <c r="P43" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q43" s="3">
+        <v>100</v>
       </c>
       <c r="R43" s="3" t="s">
         <v>3</v>
@@ -2660,17 +2846,23 @@
       <c r="S43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T43" s="3">
-        <v>0</v>
-      </c>
-      <c r="U43" s="3">
-        <v>0</v>
+      <c r="T43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="V43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+      <c r="X43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2731,159 +2923,177 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>9100</v>
+      </c>
+      <c r="E45" s="3">
+        <v>9400</v>
+      </c>
+      <c r="F45" s="3">
         <v>14600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>12200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>12400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>11900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>10900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>10700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>8500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>7700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>6200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>5200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>5200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>2200</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R45" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T45" s="3">
-        <v>0</v>
-      </c>
-      <c r="U45" s="3">
-        <v>0</v>
+      <c r="T45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U45" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="V45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+      <c r="X45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>563900</v>
+      </c>
+      <c r="E46" s="3">
+        <v>410200</v>
+      </c>
+      <c r="F46" s="3">
         <v>451900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>433900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>467600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>301300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>350800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>377600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>259400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>306400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>345100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>372700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>238500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>66000</v>
       </c>
-      <c r="P46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R46" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T46" s="3">
-        <v>0</v>
-      </c>
-      <c r="U46" s="3">
-        <v>0</v>
+      <c r="T46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U46" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="V46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3">
+        <v>0</v>
+      </c>
+      <c r="X46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>0</v>
+      </c>
+      <c r="E47" s="3">
+        <v>18900</v>
+      </c>
+      <c r="F47" s="3">
         <v>21200</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>28000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>30400</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>35700</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>37500</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>39300</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2896,11 +3106,11 @@
       <c r="O47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P47" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q47" s="3">
-        <v>0</v>
+      <c r="P47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R47" s="3">
         <v>0</v>
@@ -2917,70 +3127,82 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>43200</v>
+      </c>
+      <c r="E48" s="3">
+        <v>44400</v>
+      </c>
+      <c r="F48" s="3">
         <v>50100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>50700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>51500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>52100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>52800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>5400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>3400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>3400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>3600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>2400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>2600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>2800</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R48" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T48" s="3">
-        <v>0</v>
-      </c>
-      <c r="U48" s="3">
-        <v>0</v>
+      <c r="T48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="V48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3">
+        <v>0</v>
+      </c>
+      <c r="X48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3003,10 +3225,10 @@
         <v>3700</v>
       </c>
       <c r="J49" s="3">
-        <v>12500</v>
+        <v>3700</v>
       </c>
       <c r="K49" s="3">
-        <v>12500</v>
+        <v>3700</v>
       </c>
       <c r="L49" s="3">
         <v>12500</v>
@@ -3020,11 +3242,11 @@
       <c r="O49" s="3">
         <v>12500</v>
       </c>
-      <c r="P49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q49" s="3" t="s">
-        <v>3</v>
+      <c r="P49" s="3">
+        <v>12500</v>
+      </c>
+      <c r="Q49" s="3">
+        <v>12500</v>
       </c>
       <c r="R49" s="3" t="s">
         <v>3</v>
@@ -3032,17 +3254,23 @@
       <c r="S49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T49" s="3">
-        <v>0</v>
-      </c>
-      <c r="U49" s="3">
-        <v>0</v>
+      <c r="T49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="V49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3103,8 +3331,14 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3165,70 +3399,82 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>10500</v>
+      </c>
+      <c r="E52" s="3">
+        <v>12100</v>
+      </c>
+      <c r="F52" s="3">
         <v>12400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>12900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>14600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>12800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>9700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>9100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>8500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>6100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>4300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>5600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>3600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>6300</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R52" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T52" s="3">
-        <v>0</v>
-      </c>
-      <c r="U52" s="3">
-        <v>0</v>
+      <c r="T52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="V52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+      <c r="X52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3289,53 +3535,59 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>621400</v>
+      </c>
+      <c r="E54" s="3">
+        <v>489300</v>
+      </c>
+      <c r="F54" s="3">
         <v>539300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>529200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>567900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>405700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>454500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>435100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>284000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>328400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>365600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>393200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>257200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>87600</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3351,8 +3603,14 @@
       <c r="V54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3375,8 +3633,10 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3399,70 +3659,78 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>12300</v>
+      </c>
+      <c r="E57" s="3">
+        <v>12800</v>
+      </c>
+      <c r="F57" s="3">
         <v>11200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>9800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>12000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>13200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>11600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>8000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>8300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>8300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>8700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>5400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>4200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>7000</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R57" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T57" s="3">
-        <v>0</v>
-      </c>
-      <c r="U57" s="3">
-        <v>0</v>
+      <c r="T57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U57" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="V57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3">
+        <v>0</v>
+      </c>
+      <c r="X57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3523,132 +3791,150 @@
       <c r="V58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+      <c r="X58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>39500</v>
+      </c>
+      <c r="E59" s="3">
+        <v>43500</v>
+      </c>
+      <c r="F59" s="3">
         <v>45400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>44200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>36600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>30300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>32400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>31400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>25300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>24500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>19900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>18500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>11400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>9900</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R59" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T59" s="3">
-        <v>0</v>
-      </c>
-      <c r="U59" s="3">
-        <v>0</v>
+      <c r="T59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U59" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="V59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3">
+        <v>0</v>
+      </c>
+      <c r="X59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>51800</v>
+      </c>
+      <c r="E60" s="3">
+        <v>56400</v>
+      </c>
+      <c r="F60" s="3">
         <v>56600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>54100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>48600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>43500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>43900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>39400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>33600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>32800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>28600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>23900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>15600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>16900</v>
       </c>
-      <c r="P60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R60" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T60" s="3">
-        <v>0</v>
-      </c>
-      <c r="U60" s="3">
-        <v>0</v>
+      <c r="T60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U60" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="V60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3">
+        <v>0</v>
+      </c>
+      <c r="X60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3709,70 +3995,82 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>46400</v>
+      </c>
+      <c r="E62" s="3">
+        <v>47300</v>
+      </c>
+      <c r="F62" s="3">
         <v>48600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>46400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>46400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>46500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>46100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>1700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>2800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>2900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>3600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>3500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>3700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>3900</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R62" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T62" s="3">
-        <v>0</v>
-      </c>
-      <c r="U62" s="3">
-        <v>0</v>
+      <c r="T62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="V62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3833,8 +4131,14 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3895,8 +4199,14 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3957,53 +4267,59 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>98300</v>
+      </c>
+      <c r="E66" s="3">
+        <v>103900</v>
+      </c>
+      <c r="F66" s="3">
         <v>105500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>100700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>95400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>90400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>90600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>41600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>60100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>60000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>57000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>52200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>44000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>27600</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4019,8 +4335,14 @@
       <c r="V66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4043,8 +4365,10 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4105,8 +4429,14 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4167,8 +4497,14 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4206,14 +4542,14 @@
         <v>0</v>
       </c>
       <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="3">
         <v>155900</v>
       </c>
-      <c r="P70" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q70" s="3">
-        <v>0</v>
-      </c>
       <c r="R70" s="3">
         <v>0</v>
       </c>
@@ -4229,8 +4565,14 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4291,53 +4633,59 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-772100</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-659600</v>
+      </c>
+      <c r="F72" s="3">
         <v>-596400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-541400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-487000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-418600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-359600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-309500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-305300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-250700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-200800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-160500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-126000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-99100</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4353,8 +4701,14 @@
       <c r="V72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4415,8 +4769,14 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4477,8 +4837,14 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4539,70 +4905,82 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>523100</v>
+      </c>
+      <c r="E76" s="3">
+        <v>385500</v>
+      </c>
+      <c r="F76" s="3">
         <v>433800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>428500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>472500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>315300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>364000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>393400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>223800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>268400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>308600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>341100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>213200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-95900</v>
       </c>
-      <c r="P76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R76" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T76" s="3">
-        <v>0</v>
-      </c>
-      <c r="U76" s="3">
-        <v>0</v>
+      <c r="T76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U76" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="V76" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W76" s="3">
+        <v>0</v>
+      </c>
+      <c r="X76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4663,61 +5041,67 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="R80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="S80" s="2" t="s">
         <v>3</v>
       </c>
@@ -4730,56 +5114,62 @@
       <c r="V80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="X80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-112500</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-63200</v>
+      </c>
+      <c r="F81" s="3">
         <v>-55000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-54400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-68400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-59100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-50100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-4200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-54600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-49900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-40300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-34600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-26900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-16100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-8300</v>
       </c>
-      <c r="Q81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S81" s="3" t="s">
         <v>3</v>
       </c>
@@ -4792,8 +5182,14 @@
       <c r="V81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4816,37 +5212,39 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E83" s="3">
         <v>400</v>
       </c>
       <c r="F83" s="3">
+        <v>400</v>
+      </c>
+      <c r="G83" s="3">
+        <v>400</v>
+      </c>
+      <c r="H83" s="3">
         <v>300</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>300</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>200</v>
-      </c>
-      <c r="I83" s="3">
-        <v>100</v>
-      </c>
-      <c r="J83" s="3">
-        <v>100</v>
       </c>
       <c r="K83" s="3">
         <v>100</v>
       </c>
       <c r="L83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M83" s="3">
         <v>100</v>
@@ -4855,13 +5253,13 @@
         <v>0</v>
       </c>
       <c r="O83" s="3">
-        <v>0</v>
-      </c>
-      <c r="P83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q83" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="3">
+        <v>0</v>
       </c>
       <c r="R83" s="3" t="s">
         <v>3</v>
@@ -4869,17 +5267,23 @@
       <c r="S83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T83" s="3">
-        <v>0</v>
-      </c>
-      <c r="U83" s="3">
-        <v>0</v>
+      <c r="T83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="V83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4940,8 +5344,14 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5002,8 +5412,14 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5064,8 +5480,14 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5126,8 +5548,14 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5188,70 +5616,82 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-79300</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-49300</v>
+      </c>
+      <c r="F89" s="3">
         <v>-37300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-33200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-43000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-50200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-37000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-33500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-46100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-37500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-27400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-20600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-22000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-16900</v>
       </c>
-      <c r="P89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T89" s="3">
-        <v>0</v>
-      </c>
-      <c r="U89" s="3">
-        <v>0</v>
+      <c r="T89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U89" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="V89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W89" s="3">
+        <v>0</v>
+      </c>
+      <c r="X89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5274,52 +5714,54 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-2200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-2700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="L91" s="3">
         <v>-800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-700</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
       <c r="O91" s="3">
         <v>0</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q91" s="3" t="s">
-        <v>3</v>
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
+        <v>0</v>
       </c>
       <c r="R91" s="3" t="s">
         <v>3</v>
@@ -5327,17 +5769,23 @@
       <c r="S91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T91" s="3">
-        <v>0</v>
-      </c>
-      <c r="U91" s="3">
-        <v>0</v>
+      <c r="T91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="V91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5398,8 +5846,14 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5460,52 +5914,58 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>72900</v>
+      </c>
+      <c r="E94" s="3">
+        <v>42100</v>
+      </c>
+      <c r="F94" s="3">
         <v>-11900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>20000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-142100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>19800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>43300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-141400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>66600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>13500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-9600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-137900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-137300</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
-      <c r="P94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q94" s="3" t="s">
-        <v>3</v>
+      <c r="Q94" s="3">
+        <v>0</v>
       </c>
       <c r="R94" s="3" t="s">
         <v>3</v>
@@ -5513,17 +5973,23 @@
       <c r="S94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T94" s="3">
-        <v>0</v>
-      </c>
-      <c r="U94" s="3">
-        <v>0</v>
+      <c r="T94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="V94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5546,8 +6012,10 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5608,8 +6076,14 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5670,8 +6144,14 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5732,8 +6212,14 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5794,70 +6280,82 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>236600</v>
+      </c>
+      <c r="E100" s="3">
+        <v>400</v>
+      </c>
+      <c r="F100" s="3">
         <v>49700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>209500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>1300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>12300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>166600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-300</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>-600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>155900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>191700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>13500</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T100" s="3">
-        <v>0</v>
-      </c>
-      <c r="U100" s="3">
-        <v>0</v>
+      <c r="T100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="V100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3">
+        <v>0</v>
+      </c>
+      <c r="X100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5918,66 +6416,78 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>230300</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="F102" s="3">
         <v>500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-12600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>24300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-29100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>18500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-8400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>20200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-24000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-37600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-2600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>32400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-3400</v>
       </c>
-      <c r="P102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T102" s="3">
-        <v>0</v>
-      </c>
-      <c r="U102" s="3">
-        <v>0</v>
+      <c r="T102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U102" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
         <v>0</v>
       </c>
     </row>
